--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3F5E18-E2A7-404B-907E-7F68C21855DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6529241F-3E4C-41E9-BC71-251B75343449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Js points" sheetId="3" r:id="rId1"/>
-    <sheet name=" Array &amp; Object" sheetId="6" r:id="rId2"/>
-    <sheet name="Operators" sheetId="7" r:id="rId3"/>
-    <sheet name="Js ES6 Interview " sheetId="5" r:id="rId4"/>
+    <sheet name="Interview questions for others" sheetId="10" r:id="rId2"/>
+    <sheet name="React-js" sheetId="9" r:id="rId3"/>
+    <sheet name=" Array &amp; Object" sheetId="6" r:id="rId4"/>
+    <sheet name="Array-Methods" sheetId="8" r:id="rId5"/>
+    <sheet name="Operators" sheetId="7" r:id="rId6"/>
+    <sheet name="Js ES6 Interview " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="229">
   <si>
     <t>Topics</t>
   </si>
@@ -117,30 +120,6 @@
   </si>
   <si>
     <t>What is Variables ?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Variables used for store some information that we can use in future and can change also (Java script Variable keywords : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>var , let, const</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>What is data Type</t>
@@ -896,26 +875,6 @@
     <t xml:space="preserve">What is Array ? </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To represent group of elements or values as one entity. 
-Where allows duplicates. 
-Where allows heterogeneous elements. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>var array= [ 10, 20, 30 ]
-Clg ( array )</t>
-    </r>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -1356,20 +1315,79 @@
     <t xml:space="preserve">JavaScript object. </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To represent group of key value pairs as one entity. Where duplicates are not allowed.
+    <t>Online Link</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/jsref/jsref_operators.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/jsref/jsref_precedence.asp</t>
+  </si>
+  <si>
+    <t>Back to main FILE</t>
+  </si>
+  <si>
+    <t>What is JS Operators ?</t>
+  </si>
+  <si>
+    <t>Back to main page</t>
+  </si>
+  <si>
+    <r>
+      <t>In JavaScript, an operator is a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> special symbol used to perform operations on operands (values and variables)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. For example, 2 + 3; // 5.
+Arithmatic Operators</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( + , - , * , / )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To represent group of elements or values as one entity. 
+Where allows duplicates. 
+Where allows heterogeneous elements. 
+Indexing is applicable.
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Var object = { id : 11 , name : " pk " } </t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Itterate using for ( of)</t>
     </r>
     <r>
       <rPr>
@@ -1391,43 +1409,473 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>var array= [ 10, 20, 30 ]
+Clg ( array )</t>
+    </r>
+  </si>
+  <si>
+    <t>How to check given  object is empty or not?</t>
+  </si>
+  <si>
+    <t>Array supporting method</t>
+  </si>
+  <si>
+    <t>JavaScript Array Methods and Properties</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>concat()</t>
+  </si>
+  <si>
+    <t>Joins arrays and returns an array with the joined arrays</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>Returns the function that created the Array object's prototype</t>
+  </si>
+  <si>
+    <t>copyWithin()</t>
+  </si>
+  <si>
+    <t>Copies array elements within the array, to and from specified positions</t>
+  </si>
+  <si>
+    <t>entries()</t>
+  </si>
+  <si>
+    <t>Returns a key/value pair Array Iteration Object</t>
+  </si>
+  <si>
+    <t>every()</t>
+  </si>
+  <si>
+    <t>Checks if every element in an array pass a test</t>
+  </si>
+  <si>
+    <t>fill()</t>
+  </si>
+  <si>
+    <t>Fill the elements in an array with a static value</t>
+  </si>
+  <si>
+    <t>filter()</t>
+  </si>
+  <si>
+    <t>Creates a new array with every element in an array that pass a test</t>
+  </si>
+  <si>
+    <t>find()</t>
+  </si>
+  <si>
+    <t>Returns the value of the first element in an array that pass a test</t>
+  </si>
+  <si>
+    <t>findIndex()</t>
+  </si>
+  <si>
+    <t>Returns the index of the first element in an array that pass a test</t>
+  </si>
+  <si>
+    <t>forEach()</t>
+  </si>
+  <si>
+    <t>Calls a function for each array element</t>
+  </si>
+  <si>
+    <t>from()</t>
+  </si>
+  <si>
+    <t>Creates an array from an object</t>
+  </si>
+  <si>
+    <t>includes()</t>
+  </si>
+  <si>
+    <t>Check if an array contains the specified element</t>
+  </si>
+  <si>
+    <t>indexOf()</t>
+  </si>
+  <si>
+    <t>Search the array for an element and returns its position</t>
+  </si>
+  <si>
+    <t>isArray()</t>
+  </si>
+  <si>
+    <t>Checks whether an object is an array</t>
+  </si>
+  <si>
+    <t>join()</t>
+  </si>
+  <si>
+    <t>Joins all elements of an array into a string</t>
+  </si>
+  <si>
+    <t>keys()</t>
+  </si>
+  <si>
+    <t>Returns a Array Iteration Object, containing the keys of the original array</t>
+  </si>
+  <si>
+    <t>lastIndexOf()</t>
+  </si>
+  <si>
+    <t>Search the array for an element, starting at the end, and returns its position</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>Sets or returns the number of elements in an array</t>
+  </si>
+  <si>
+    <t>map()</t>
+  </si>
+  <si>
+    <t>Creates a new array with the result of calling a function for each array element</t>
+  </si>
+  <si>
+    <t>pop()</t>
+  </si>
+  <si>
+    <t>Removes the last element of an array, and returns that element</t>
+  </si>
+  <si>
+    <t>prototype</t>
+  </si>
+  <si>
+    <t>Allows you to add properties and methods to an Array object</t>
+  </si>
+  <si>
+    <t>push()</t>
+  </si>
+  <si>
+    <t>Adds new elements to the end of an array, and returns the new length</t>
+  </si>
+  <si>
+    <t>reduce()</t>
+  </si>
+  <si>
+    <t>Reduce the values of an array to a single value (going left-to-right)</t>
+  </si>
+  <si>
+    <t>reduceRight()</t>
+  </si>
+  <si>
+    <t>Reduce the values of an array to a single value (going right-to-left)</t>
+  </si>
+  <si>
+    <t>reverse()</t>
+  </si>
+  <si>
+    <t>Reverses the order of the elements in an array</t>
+  </si>
+  <si>
+    <t>shift()</t>
+  </si>
+  <si>
+    <t>Removes the first element of an array, and returns that element</t>
+  </si>
+  <si>
+    <t>slice()</t>
+  </si>
+  <si>
+    <t>Selects a part of an array, and returns the new array</t>
+  </si>
+  <si>
+    <t>some()</t>
+  </si>
+  <si>
+    <t>Checks if any of the elements in an array pass a test</t>
+  </si>
+  <si>
+    <t>sort()</t>
+  </si>
+  <si>
+    <t>Sorts the elements of an array</t>
+  </si>
+  <si>
+    <t>splice()</t>
+  </si>
+  <si>
+    <t>Adds/Removes elements from an array</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>Converts an array to a string, and returns the result</t>
+  </si>
+  <si>
+    <t>unshift()</t>
+  </si>
+  <si>
+    <t>Adds new elements to the beginning of an array, and returns the new length</t>
+  </si>
+  <si>
+    <t>valueOf()</t>
+  </si>
+  <si>
+    <t>Returns the primitive value of an array</t>
+  </si>
+  <si>
+    <t>React JS</t>
+  </si>
+  <si>
+    <t>QNS</t>
+  </si>
+  <si>
+    <t>ANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motive of React &amp; its current version?
+</t>
+  </si>
+  <si>
+    <t>Building blocks of components and it has lot of in-built classes
+JS library for building and developing the UI [Web Application]
+Still FB uses React &amp; its
+version -18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advantages of react?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainly for Single Page Application (SAP) development because
+internally they use AJAX[Asynchronous Javascript And XML]
+For State Management
+Components [Class, Funcion]  driven architecture 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React Native &amp; its Ofiicial Website link?
+ </t>
+  </si>
+  <si>
+    <t>Building Android, IOS Apps
+(LOWA)
+Learn Once Write Anywhere
+for any purpose
+https://reactnative.dev/</t>
+  </si>
+  <si>
+    <t>React library?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Collection of JavaScript files </t>
+  </si>
+  <si>
+    <t>Types of JS?</t>
+  </si>
+  <si>
+    <t>Immutable JS [Commonly used]
+Knockout JS[Rarely used]</t>
+  </si>
+  <si>
+    <t>Opensource for Official Website links</t>
+  </si>
+  <si>
+    <t>https://reactjs.org/
+https://create-react-app.dev/</t>
+  </si>
+  <si>
+    <t>What is npm &amp; npx?</t>
+  </si>
+  <si>
+    <t>Node Package Manager
+Node Package Runner (Executive)</t>
+  </si>
+  <si>
+    <t>How to preset the environment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presetting the Environment using Transpiler[ES6-&gt;ES5 (Downgrading)] inorder to lose the browser compatability </t>
+  </si>
+  <si>
+    <t>Which Transpiler does react works?</t>
+  </si>
+  <si>
+    <t>Babel.js (works Internally)</t>
+  </si>
+  <si>
+    <t>Dependencies of react?</t>
+  </si>
+  <si>
+    <t>React (Develop the Components )
+React-DOM(Develop the react-apps)
+React -Script</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Variables used for store some information that we can use in future and can change also (Java script Variable keywords : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var , let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+CONST cannot be updated or redeclared.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To represent group of key value pairs as one entity. Where duplicates are not allowed.
+Indexing is not Applicable.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Itterate using for ( in)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Var object = { id : 11 , name : " pk " } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>console.log ( object );</t>
     </r>
   </si>
   <si>
-    <t>JS Operators</t>
-  </si>
-  <si>
-    <r>
-      <t>Arithmatic Operators</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ( + , - , * , / )</t>
-    </r>
-  </si>
-  <si>
-    <t>Online Link</t>
-  </si>
-  <si>
-    <t>https://www.w3schools.com/jsref/jsref_operators.asp</t>
-  </si>
-  <si>
-    <t>https://www.w3schools.com/jsref/jsref_precedence.asp</t>
+    <t>console.log ( Object.keys ( obj ). length &gt;0 ? True : false ) ;</t>
+  </si>
+  <si>
+    <t>Others Interview questions</t>
+  </si>
+  <si>
+    <t>What is DOM manipulation?</t>
+  </si>
+  <si>
+    <t>Differnciate Type Error and Syntax Error with examples</t>
+  </si>
+  <si>
+    <t>Hoisting in Javascript</t>
+  </si>
+  <si>
+    <t>Diff between DOM and Vdom?</t>
+  </si>
+  <si>
+    <t>Removing duplicates from array?</t>
+  </si>
+  <si>
+    <t>Pure component ?</t>
+  </si>
+  <si>
+    <t>HigherOrder Components</t>
+  </si>
+  <si>
+    <t>Life cycle methods with full Explanation-Class level</t>
+  </si>
+  <si>
+    <t>Life cycle methods with full Explanation-Function level Hooks</t>
+  </si>
+  <si>
+    <t>React Questions</t>
+  </si>
+  <si>
+    <t>Shallow and deep copy</t>
+  </si>
+  <si>
+    <t>Local server and local storage?</t>
+  </si>
+  <si>
+    <t>Why useEffect is a bad call to calling api's</t>
+  </si>
+  <si>
+    <t>Control and uncontroled components</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>What is SASS and LESS</t>
+  </si>
+  <si>
+    <t>CSS Questions</t>
+  </si>
+  <si>
+    <t>Java Script Questions</t>
+  </si>
+  <si>
+    <t>Props Drilling</t>
+  </si>
+  <si>
+    <t>Flow of Redux</t>
+  </si>
+  <si>
+    <t>Function Closure and call back</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1564,8 +2012,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1590,8 +2065,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E9EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1662,12 +2155,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1726,6 +2298,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1737,6 +2361,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1750,25 +2380,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3110,10 +3729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:D24"/>
+  <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3129,10 +3748,10 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3140,8 +3759,8 @@
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -3213,7 +3832,7 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="41" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3224,7 +3843,7 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3240,7 +3859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -3248,7 +3867,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3256,30 +3875,30 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -3287,10 +3906,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -3298,59 +3917,65 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>69</v>
+      <c r="C19" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="22" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>20</v>
+      <c r="D23" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3361,8 +3986,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? " xr:uid="{B226374E-32D4-4F71-A64D-7788F11F01B9}"/>
-    <hyperlink ref="C20" location="' Array &amp; Object'!A1" display="JavaScript object. " xr:uid="{F31F5689-9E6D-4F4D-962B-963FE0B91557}"/>
-    <hyperlink ref="C21" location="Operators!A1" display="JS Operators" xr:uid="{BB8632D7-1321-4656-A0AF-E28D41A81C11}"/>
+    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. " xr:uid="{F31F5689-9E6D-4F4D-962B-963FE0B91557}"/>
+    <hyperlink ref="C23" location="Operators!A1" display="JS Operators" xr:uid="{BB8632D7-1321-4656-A0AF-E28D41A81C11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3370,155 +3995,612 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B55E20D-92B2-4224-A030-358E82C83104}">
-  <dimension ref="B3:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C77ABC-FCB1-430F-AA08-9F5F0A1B1891}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="H3" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="H12" s="2">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D0F9BF-5B12-4EA5-8D0A-7679A3A09858}">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="59.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B55E20D-92B2-4224-A030-358E82C83104}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.44140625" customWidth="1"/>
     <col min="6" max="6" width="44.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="E4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="16" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="C5" s="41" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="D5" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="E5" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="30" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="49"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="14" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="49"/>
+      <c r="C7" s="14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="1" t="s">
+      <c r="D7" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="14" t="s">
+      <c r="E7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="49"/>
+      <c r="C8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="14" t="s">
+      <c r="E8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="18" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B9" s="49"/>
+      <c r="C9" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10" s="49"/>
       <c r="C10" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="49"/>
       <c r="C11" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="E12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3531,42 +4613,387 @@
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="C5:C6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page" xr:uid="{A989FD16-1092-45E2-AC6D-B1E31057AF94}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ABB840-4803-4677-B5E8-0910C0D0D70C}">
-  <dimension ref="B3:F3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC4E33-A35D-47DE-815D-20F0D583B6C4}">
+  <dimension ref="B2:C36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="50"/>
+    </row>
+    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp" xr:uid="{7A333F26-16AB-4AB8-AA49-602613607F5C}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp" xr:uid="{7177D1DA-B1C7-48D2-A7FD-494A24FBCEF6}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp" xr:uid="{C1D25ACF-EB75-4428-852D-894AACE5E405}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp" xr:uid="{C1D3FD03-E09E-40D9-9145-684111A14026}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp" xr:uid="{FABAED71-5682-49DA-B554-E1C883BEEEA5}"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp" xr:uid="{5FBFDB25-4A64-43B6-82AE-D521CBF59F2B}"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp" xr:uid="{71F3A10E-A2E9-43A6-9E29-670208ABE523}"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp" xr:uid="{AC6CF97B-F24E-42E2-BCF9-DB17D866554C}"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp" xr:uid="{18D94740-A50B-44FC-B782-D4595F5825B7}"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp" xr:uid="{3334C787-6FE0-4460-86E7-7CD3D663F7D9}"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp" xr:uid="{13703739-B7C7-4ACD-842B-78F7E2B88A51}"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp" xr:uid="{4C7CDAFA-9FCB-4003-B4C6-FCF15D5F6E4A}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp" xr:uid="{E05961CC-F1F0-4C9C-B197-A49EA470DD11}"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp" xr:uid="{F618FF61-041B-4C15-8F1F-4FB8601C8104}"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp" xr:uid="{CCE8768F-53FF-4111-9FC5-7FC1C20A1044}"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp" xr:uid="{FA239544-DFE2-4B4B-B1CB-4EF9CDBE7779}"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp" xr:uid="{A6549346-43B4-428E-90D3-6ED8DBC48F2A}"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp" xr:uid="{89CC4E8E-E005-431C-8D12-8F7DB78AB676}"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp" xr:uid="{0960DCD4-3297-4928-99DD-3795427A44A9}"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp" xr:uid="{5F13F76B-F7FD-4407-A8AD-23342EEA0198}"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp" xr:uid="{4D77E022-1BB9-43E5-A384-A05032A439F9}"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp" xr:uid="{5FC21BDA-4A64-44D8-9B03-A757145CA208}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp" xr:uid="{E49A4C87-100B-4E0E-A038-6F7BA6099627}"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp" xr:uid="{6000B10C-2B12-45E2-A99E-DF8FCD36AA8A}"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp" xr:uid="{51D4D0E5-40C9-44B4-AD93-3FB8319B51F4}"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp" xr:uid="{82D2C8DE-E25D-4125-841B-13C250FF6C89}"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp" xr:uid="{43683528-25F3-4DEC-9CF9-FC8C876E1565}"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp" xr:uid="{171329A1-3300-4A39-A0D0-14969C2D7F90}"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp" xr:uid="{D8CD5C7C-E3C0-4E5F-9752-91260E3BD62B}"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp" xr:uid="{CF132E5C-EC69-4C23-B600-39FC7799751B}"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp" xr:uid="{1ADF8D22-44AE-4FB0-BF65-CD146F43BD58}"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp" xr:uid="{BB3EF5FD-8D33-442C-97F1-28BECA33D0C7}"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp" xr:uid="{70D8FBFD-D00B-4F8E-8A51-3E08A56BAD0F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ABB840-4803-4677-B5E8-0910C0D0D70C}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.88671875" customWidth="1"/>
     <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="33"/>
+    <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{7A44B30B-489B-49C8-B243-5BB9EA8DDFD2}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{6A0D85E1-1A26-42D0-A6E2-90372A9D95E3}"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE" xr:uid="{14B0BD6A-D7E3-4DF2-A299-7BA50EB3D167}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -3574,12 +5001,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F5589E-B25E-408F-AC91-E6B2FC20DFA7}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3595,10 +5022,10 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3606,30 +5033,30 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3637,10 +5064,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -3648,30 +5075,30 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>35</v>
+      <c r="C8" s="41" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3679,10 +5106,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="58.8" x14ac:dyDescent="0.3">
@@ -3690,10 +5117,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="58.8" x14ac:dyDescent="0.3">
@@ -3701,10 +5128,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3712,10 +5139,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -3723,10 +5150,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -3734,10 +5161,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3745,10 +5172,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="172.8" x14ac:dyDescent="0.3">
@@ -3756,10 +5183,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3767,10 +5194,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -3778,10 +5205,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="201.6" x14ac:dyDescent="0.3">
@@ -3789,10 +5216,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="187.2" x14ac:dyDescent="0.3">
@@ -3800,10 +5227,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -3811,10 +5238,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6529241F-3E4C-41E9-BC71-251B75343449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Js points" sheetId="3" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="230">
   <si>
     <t>Topics</t>
   </si>
@@ -1870,11 +1869,14 @@
   <si>
     <t>Function Closure and call back</t>
   </si>
+  <si>
+    <t>Flexbox</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2350,6 +2352,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2382,12 +2390,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2427,7 +2429,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2473,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2517,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2561,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2605,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2653,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2697,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2739,7 +2741,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2785,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2827,7 +2829,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2873,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,7 +2922,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,7 +3000,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3048,7 +3050,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,7 +3103,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +3156,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3207,7 +3209,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3257,7 +3259,7 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3309,7 @@
         <xdr:cNvPr id="17" name="Connector: Elbow 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3365,7 +3367,7 @@
         <xdr:cNvPr id="20" name="Connector: Elbow 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3451,7 +3453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3484,26 +3486,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3536,23 +3521,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3728,7 +3696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -3748,10 +3716,10 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3759,8 +3727,8 @@
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -3832,7 +3800,7 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="43" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3843,7 +3811,7 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3885,7 +3853,7 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -3896,7 +3864,7 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3985,9 +3953,9 @@
     <mergeCell ref="C15:C16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? " xr:uid="{B226374E-32D4-4F71-A64D-7788F11F01B9}"/>
-    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. " xr:uid="{F31F5689-9E6D-4F4D-962B-963FE0B91557}"/>
-    <hyperlink ref="C23" location="Operators!A1" display="JS Operators" xr:uid="{BB8632D7-1321-4656-A0AF-E28D41A81C11}"/>
+    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? "/>
+    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. "/>
+    <hyperlink ref="C23" location="Operators!A1" display="JS Operators"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3995,17 +3963,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C77ABC-FCB1-430F-AA08-9F5F0A1B1891}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="41" customWidth="1"/>
     <col min="4" max="4" width="46.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="31.21875" customWidth="1"/>
@@ -4020,33 +3988,33 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="H3" s="51" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="H3" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -4075,7 +4043,9 @@
       <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4190,19 +4160,19 @@
       <c r="B17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
@@ -4292,19 +4262,19 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D0F9BF-5B12-4EA5-8D0A-7679A3A09858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4446,7 +4416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B55E20D-92B2-4224-A030-358E82C83104}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4468,10 +4438,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="15" t="s">
         <v>70</v>
       </c>
@@ -4483,10 +4453,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="2" t="s">
         <v>74</v>
       </c>
@@ -4498,16 +4468,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="46" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -4515,16 +4485,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="49"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="49"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="14" t="s">
         <v>82</v>
       </c>
@@ -4539,7 +4509,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="49"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="14" t="s">
         <v>86</v>
       </c>
@@ -4554,7 +4524,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="49"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="14" t="s">
         <v>90</v>
       </c>
@@ -4565,7 +4535,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="49"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="14" t="s">
         <v>92</v>
       </c>
@@ -4576,7 +4546,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="49"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="14" t="s">
         <v>94</v>
       </c>
@@ -4589,10 +4559,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="4" t="s">
         <v>98</v>
       </c>
@@ -4614,14 +4584,14 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page" xr:uid="{A989FD16-1092-45E2-AC6D-B1E31057AF94}"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC4E33-A35D-47DE-815D-20F0D583B6C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C36"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
@@ -4635,10 +4605,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
@@ -4917,39 +4887,39 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp" xr:uid="{7A333F26-16AB-4AB8-AA49-602613607F5C}"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp" xr:uid="{7177D1DA-B1C7-48D2-A7FD-494A24FBCEF6}"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp" xr:uid="{C1D25ACF-EB75-4428-852D-894AACE5E405}"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp" xr:uid="{C1D3FD03-E09E-40D9-9145-684111A14026}"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp" xr:uid="{FABAED71-5682-49DA-B554-E1C883BEEEA5}"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp" xr:uid="{5FBFDB25-4A64-43B6-82AE-D521CBF59F2B}"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp" xr:uid="{71F3A10E-A2E9-43A6-9E29-670208ABE523}"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp" xr:uid="{AC6CF97B-F24E-42E2-BCF9-DB17D866554C}"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp" xr:uid="{18D94740-A50B-44FC-B782-D4595F5825B7}"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp" xr:uid="{3334C787-6FE0-4460-86E7-7CD3D663F7D9}"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp" xr:uid="{13703739-B7C7-4ACD-842B-78F7E2B88A51}"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp" xr:uid="{4C7CDAFA-9FCB-4003-B4C6-FCF15D5F6E4A}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp" xr:uid="{E05961CC-F1F0-4C9C-B197-A49EA470DD11}"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp" xr:uid="{F618FF61-041B-4C15-8F1F-4FB8601C8104}"/>
-    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp" xr:uid="{CCE8768F-53FF-4111-9FC5-7FC1C20A1044}"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp" xr:uid="{FA239544-DFE2-4B4B-B1CB-4EF9CDBE7779}"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp" xr:uid="{A6549346-43B4-428E-90D3-6ED8DBC48F2A}"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp" xr:uid="{89CC4E8E-E005-431C-8D12-8F7DB78AB676}"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp" xr:uid="{0960DCD4-3297-4928-99DD-3795427A44A9}"/>
-    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp" xr:uid="{5F13F76B-F7FD-4407-A8AD-23342EEA0198}"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp" xr:uid="{4D77E022-1BB9-43E5-A384-A05032A439F9}"/>
-    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp" xr:uid="{5FC21BDA-4A64-44D8-9B03-A757145CA208}"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp" xr:uid="{E49A4C87-100B-4E0E-A038-6F7BA6099627}"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp" xr:uid="{6000B10C-2B12-45E2-A99E-DF8FCD36AA8A}"/>
-    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp" xr:uid="{51D4D0E5-40C9-44B4-AD93-3FB8319B51F4}"/>
-    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp" xr:uid="{82D2C8DE-E25D-4125-841B-13C250FF6C89}"/>
-    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp" xr:uid="{43683528-25F3-4DEC-9CF9-FC8C876E1565}"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp" xr:uid="{171329A1-3300-4A39-A0D0-14969C2D7F90}"/>
-    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp" xr:uid="{D8CD5C7C-E3C0-4E5F-9752-91260E3BD62B}"/>
-    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp" xr:uid="{CF132E5C-EC69-4C23-B600-39FC7799751B}"/>
-    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp" xr:uid="{1ADF8D22-44AE-4FB0-BF65-CD146F43BD58}"/>
-    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp" xr:uid="{BB3EF5FD-8D33-442C-97F1-28BECA33D0C7}"/>
-    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp" xr:uid="{70D8FBFD-D00B-4F8E-8A51-3E08A56BAD0F}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
@@ -4957,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ABB840-4803-4677-B5E8-0910C0D0D70C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0">
@@ -4991,9 +4961,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{7A44B30B-489B-49C8-B243-5BB9EA8DDFD2}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{6A0D85E1-1A26-42D0-A6E2-90372A9D95E3}"/>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE" xr:uid="{14B0BD6A-D7E3-4DF2-A299-7BA50EB3D167}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5002,7 +4972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F5589E-B25E-408F-AC91-E6B2FC20DFA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5022,10 +4992,10 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5033,8 +5003,8 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -5085,7 +5055,7 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="43" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -5096,7 +5066,7 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="4" t="s">
         <v>37</v>
       </c>

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB2C66-0454-4DFC-836B-402ACF8049E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Js points" sheetId="3" r:id="rId1"/>
-    <sheet name="Interview questions for others" sheetId="10" r:id="rId2"/>
+    <sheet name="Interview questions for others" sheetId="10" r:id="rId1"/>
+    <sheet name="Js points" sheetId="3" r:id="rId2"/>
     <sheet name="React-js" sheetId="9" r:id="rId3"/>
     <sheet name=" Array &amp; Object" sheetId="6" r:id="rId4"/>
     <sheet name="Array-Methods" sheetId="8" r:id="rId5"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="234">
   <si>
     <t>Topics</t>
   </si>
@@ -1872,11 +1873,23 @@
   <si>
     <t>Flexbox</t>
   </si>
+  <si>
+    <t xml:space="preserve">what is Box model inCSS </t>
+  </si>
+  <si>
+    <t>Grid in CSS ?</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Prototype Object in Js?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2241,7 +2254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2391,6 +2404,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2429,7 +2448,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2492,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2536,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2580,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,7 +2624,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2672,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2716,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2760,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2785,7 +2804,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2848,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,7 +2892,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2941,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,7 +3019,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,7 +3069,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3122,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,7 +3175,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3209,7 +3228,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3278,7 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3328,7 @@
         <xdr:cNvPr id="17" name="Connector: Elbow 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3367,7 +3386,7 @@
         <xdr:cNvPr id="20" name="Connector: Elbow 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3453,7 +3472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3486,9 +3505,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3521,6 +3557,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3696,11 +3749,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="H3" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="H12" s="2">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3953,328 +4355,17 @@
     <mergeCell ref="C15:C16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? "/>
-    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. "/>
-    <hyperlink ref="C23" location="Operators!A1" display="JS Operators"/>
+    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. " xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C23" location="Operators!A1" display="JS Operators" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="H3" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="H9" s="2">
-        <v>6</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="H10" s="2">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="H11" s="2">
-        <v>8</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="H12" s="2">
-        <v>9</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="H13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="I2:I3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4416,12 +4507,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4584,14 +4673,14 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:C36"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
@@ -4887,39 +4976,39 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp"/>
-    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp"/>
-    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp"/>
-    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp"/>
-    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp"/>
-    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp"/>
-    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp"/>
-    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp"/>
-    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp"/>
-    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp"/>
-    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp"/>
-    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
@@ -4927,12 +5016,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4961,9 +5048,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4972,7 +5059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB2C66-0454-4DFC-836B-402ACF8049E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
-    <sheet name="Interview questions for others" sheetId="10" r:id="rId1"/>
-    <sheet name="Js points" sheetId="3" r:id="rId2"/>
-    <sheet name="React-js" sheetId="9" r:id="rId3"/>
+    <sheet name="JS Points" sheetId="3" r:id="rId1"/>
+    <sheet name="Interview questions for others" sheetId="10" r:id="rId2"/>
+    <sheet name="React-JS" sheetId="9" r:id="rId3"/>
     <sheet name=" Array &amp; Object" sheetId="6" r:id="rId4"/>
     <sheet name="Array-Methods" sheetId="8" r:id="rId5"/>
     <sheet name="Operators" sheetId="7" r:id="rId6"/>
-    <sheet name="Js ES6 Interview " sheetId="5" r:id="rId7"/>
+    <sheet name="JS ES6 Interview " sheetId="5" r:id="rId7"/>
+    <sheet name="JS Error Types" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="247">
   <si>
     <t>Topics</t>
   </si>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>JAVA = 50 + , JavaScript =65 + ,Python = 36 +</t>
-  </si>
-  <si>
-    <t>Compilars: 1,  C, C++, JAVA.
-                       2,  It covert the whole code into byte code before starting exicution.</t>
   </si>
   <si>
     <t xml:space="preserve">Interpreters: 1, Python ,JS
@@ -1811,15 +1807,9 @@
     <t>What is DOM manipulation?</t>
   </si>
   <si>
-    <t>Differnciate Type Error and Syntax Error with examples</t>
-  </si>
-  <si>
     <t>Hoisting in Javascript</t>
   </si>
   <si>
-    <t>Diff between DOM and Vdom?</t>
-  </si>
-  <si>
     <t>Removing duplicates from array?</t>
   </si>
   <si>
@@ -1874,23 +1864,141 @@
     <t>Flexbox</t>
   </si>
   <si>
-    <t xml:space="preserve">what is Box model inCSS </t>
-  </si>
-  <si>
-    <t>Grid in CSS ?</t>
-  </si>
-  <si>
-    <t>Cookies</t>
-  </si>
-  <si>
-    <t>Prototype Object in Js?</t>
+    <t>Random Questions</t>
+  </si>
+  <si>
+    <t>What is Front End?</t>
+  </si>
+  <si>
+    <t>What is Back End?</t>
+  </si>
+  <si>
+    <t>What is an Algorithm?</t>
+  </si>
+  <si>
+    <t>What is Data Structure?</t>
+  </si>
+  <si>
+    <t>Diff between Service &amp; Product based</t>
+  </si>
+  <si>
+    <t>HTML Questions</t>
+  </si>
+  <si>
+    <t>Diff between Semantic &amp; Non-Semantic elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DOM manipulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is when you use JavaScript to add, remove, and modify elements of a website. It is very common in web development.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SyntaxError: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Raised when a syntax error occurs while parsing JavaScript code.                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TypeError:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Raised when the type of a variable is not as expected.                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ReferenceError:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Raised when an invalid reference is used.</t>
+    </r>
+  </si>
+  <si>
+    <t>Explain SyntaxError, ReferenceError and TypeError with examples</t>
+  </si>
+  <si>
+    <t>Explain Type Error, Syntax Error and Referrence Error</t>
+  </si>
+  <si>
+    <t>Back To Home</t>
+  </si>
+  <si>
+    <t>JAVASCRIPT ERROR-TYPES</t>
+  </si>
+  <si>
+    <t>SyntaxError Example</t>
+  </si>
+  <si>
+    <t>ReferenceError Example</t>
+  </si>
+  <si>
+    <t>TypeError Example</t>
+  </si>
+  <si>
+    <t>Explaination</t>
+  </si>
+  <si>
+    <t>Diff between DOM and VDOM?</t>
+  </si>
+  <si>
+    <t>Compilers: 1,  C, C++, JAVA.
+                       2,  It covert the whole code into byte code before starting exicution.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2054,6 +2162,51 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2099,7 +2252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2249,12 +2402,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2310,9 +2628,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2371,6 +2686,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2404,10 +2725,96 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2448,7 +2855,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2899,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2943,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,7 +2987,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +3031,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +3079,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +3123,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +3167,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +3211,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2848,7 +3255,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +3299,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +3348,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3426,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3069,7 +3476,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3122,7 +3529,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3582,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3635,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3685,7 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3735,7 @@
         <xdr:cNvPr id="17" name="Connector: Elbow 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3386,7 +3793,7 @@
         <xdr:cNvPr id="20" name="Connector: Elbow 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3424,6 +3831,186 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1716443</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1417320" y="1516380"/>
+          <a:ext cx="6585623" cy="4084320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1722120</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>84142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409701" y="6187440"/>
+          <a:ext cx="6598919" cy="3711262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53341</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1706880</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>129866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1424941" y="10523220"/>
+          <a:ext cx="6568439" cy="3756986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1706880</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>68750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="17053"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1402080" y="15095220"/>
+          <a:ext cx="6591300" cy="1630850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3472,7 +4059,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3505,26 +4092,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3557,23 +4127,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3749,360 +4302,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="H3" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="H9" s="2">
-        <v>6</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="H10" s="2">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="H11" s="2">
-        <v>8</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="H12" s="2">
-        <v>9</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="H13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="53"/>
-    </row>
-    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>6</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
-        <v>10</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="I2:I3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4118,28 +4322,28 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="86" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="87"/>
     </row>
     <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="B4" s="83">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="84" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4202,20 +4406,20 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>20</v>
+      <c r="C10" s="44" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -4234,10 +4438,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4245,30 +4449,30 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -4276,10 +4480,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -4287,65 +4491,75 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>68</v>
+      <c r="C19" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="29" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>206</v>
-      </c>
-    </row>
     <row r="23" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="22" t="s">
-        <v>106</v>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>236</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4355,9 +4569,497 @@
     <mergeCell ref="C15:C16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. " xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C23" location="Operators!A1" display="JS Operators" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? "/>
+    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. "/>
+    <hyperlink ref="C23" location="Operators!A1" display="JS Operators"/>
+    <hyperlink ref="C24" location="'JS Error Types'!A1" display="Explain SyntaxError, ReferenceError and TypeError with examples"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="H3" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="42"/>
+      <c r="H12" s="2">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="42"/>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="H18" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="H24" s="2">
+        <v>6</v>
+      </c>
+      <c r="I24" s="42"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="H25" s="2">
+        <v>7</v>
+      </c>
+      <c r="I25" s="42"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="H26" s="2">
+        <v>8</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="42"/>
+      <c r="H27" s="2">
+        <v>9</v>
+      </c>
+      <c r="I27" s="42"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="42"/>
+      <c r="H28" s="2">
+        <v>10</v>
+      </c>
+      <c r="I28" s="42"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+    </row>
+    <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="42"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <v>5</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>6</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>7</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>8</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>9</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>10</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" location="'JS Error Types'!A1" display="Explain Type Error, Syntax Error and Referrence Error"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4365,11 +5067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4381,14 +5083,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
@@ -4396,10 +5098,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="115.2" x14ac:dyDescent="0.3">
@@ -4407,10 +5109,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -4418,10 +5120,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -4429,10 +5131,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4440,10 +5142,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4451,10 +5153,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -4462,10 +5164,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4473,10 +5175,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -4484,10 +5186,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -4495,10 +5197,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4507,10 +5209,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4522,144 +5226,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>107</v>
+      <c r="A1" s="26" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="51" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="16" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="52" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="51" t="s">
+      <c r="C5" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="D5" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="E5" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="52"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="1" t="s">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="52"/>
+      <c r="C7" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="51"/>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="52"/>
+      <c r="C8" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="51"/>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="18" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B9" s="52"/>
+      <c r="C9" s="14" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="51"/>
-      <c r="C9" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10" s="52"/>
+      <c r="C10" s="14" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="51"/>
-      <c r="C10" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="52"/>
+      <c r="C11" s="14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="51"/>
-      <c r="C11" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="16" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="49" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4673,17 +5377,17 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4694,281 +5398,281 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="53"/>
+    </row>
+    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="52"/>
-    </row>
-    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="32" t="s">
+    </row>
+    <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="32" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
+      <c r="C4" t="s">
         <v>115</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="34" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="36" t="s">
+    </row>
+    <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="34" t="s">
+    </row>
+    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="34" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="35" t="s">
+      <c r="C7" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="36" t="s">
+    </row>
+    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="33" t="s">
+      <c r="C8" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="34" t="s">
+    </row>
+    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="34" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="35" t="s">
+      <c r="C9" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="36" t="s">
+    </row>
+    <row r="10" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="33" t="s">
+      <c r="C10" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="34" t="s">
+    </row>
+    <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="34" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="35" t="s">
+      <c r="C11" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="36" t="s">
+    </row>
+    <row r="12" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="32" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="33" t="s">
+      <c r="C12" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="34" t="s">
+    </row>
+    <row r="13" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="34" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="35" t="s">
+      <c r="C13" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="36" t="s">
+    </row>
+    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="32" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="33" t="s">
+      <c r="C14" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="34" t="s">
+    </row>
+    <row r="15" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="34" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="35" t="s">
+      <c r="C15" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="36" t="s">
+    </row>
+    <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="32" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="33" t="s">
+      <c r="C16" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="34" t="s">
+    </row>
+    <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="34" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="35" t="s">
+      <c r="C17" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="36" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="32" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="33" t="s">
+      <c r="C18" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="34" t="s">
+    </row>
+    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="34" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="35" t="s">
+      <c r="C19" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="36" t="s">
+    </row>
+    <row r="20" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="32" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="33" t="s">
+      <c r="C20" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="34" t="s">
+    </row>
+    <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="34" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="35" t="s">
+      <c r="C21" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="36" t="s">
+    </row>
+    <row r="22" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="32" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="33" t="s">
+      <c r="C22" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="34" t="s">
+    </row>
+    <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="34" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="35" t="s">
+      <c r="C23" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="36" t="s">
+    </row>
+    <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="32" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="33" t="s">
+      <c r="C24" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="34" t="s">
+    </row>
+    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="34" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="35" t="s">
+      <c r="C25" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="36" t="s">
+    </row>
+    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="32" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="33" t="s">
+      <c r="C26" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="34" t="s">
+    </row>
+    <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="34" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="35" t="s">
+      <c r="C27" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="36" t="s">
+    </row>
+    <row r="28" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="32" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="33" t="s">
+      <c r="C28" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="34" t="s">
+    </row>
+    <row r="29" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="34" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="35" t="s">
+      <c r="C29" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="36" t="s">
+    </row>
+    <row r="30" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="32" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="33" t="s">
+      <c r="C30" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="34" t="s">
+    </row>
+    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="34" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="35" t="s">
+      <c r="C31" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="36" t="s">
+    </row>
+    <row r="32" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="33" t="s">
+      <c r="C32" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="34" t="s">
+    </row>
+    <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="34" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="35" t="s">
+      <c r="C33" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="36" t="s">
+    </row>
+    <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="33" t="s">
+      <c r="C34" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="34" t="s">
+    </row>
+    <row r="35" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="34" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="35" t="s">
+      <c r="C35" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="36" t="s">
+    </row>
+    <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="36" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="37" t="s">
+      <c r="C36" s="37" t="s">
         <v>179</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4976,39 +5680,39 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
-    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
-    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
-    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
-    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
-    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
-    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
@@ -5016,10 +5720,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5030,27 +5736,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>105</v>
+      <c r="A1" s="26" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5059,10 +5765,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C20" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -5079,10 +5785,10 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5090,18 +5796,18 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="12"/>
     </row>
@@ -5110,10 +5816,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5121,10 +5827,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -5132,30 +5838,30 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>34</v>
+      <c r="C8" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5163,10 +5869,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="58.8" x14ac:dyDescent="0.3">
@@ -5174,10 +5880,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="58.8" x14ac:dyDescent="0.3">
@@ -5185,10 +5891,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5196,10 +5902,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -5207,10 +5913,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -5218,10 +5924,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5229,10 +5935,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="172.8" x14ac:dyDescent="0.3">
@@ -5240,10 +5946,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5251,10 +5957,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -5262,10 +5968,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="201.6" x14ac:dyDescent="0.3">
@@ -5273,10 +5979,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="187.2" x14ac:dyDescent="0.3">
@@ -5284,10 +5990,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -5295,10 +6001,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5311,4 +6017,485 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="56" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" s="58" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+    </row>
+    <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="72"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="73"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="72"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="73"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="72"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="73"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="72"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="73"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="72"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="73"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="72"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="73"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="72"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="73"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="72"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="73"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="72"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="73"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="72"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="73"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="72"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="73"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="72"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="73"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="72"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="73"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="72"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="73"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="72"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="73"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="72"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="73"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="72"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="73"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="72"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="73"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="72"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="73"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="72"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="73"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="72"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="73"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="72"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="73"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+    </row>
+    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+    </row>
+    <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="72"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="73"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="72"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="73"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="72"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="73"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="72"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="73"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="72"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="73"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="72"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="73"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="72"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="73"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="72"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="73"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="72"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="73"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="72"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="73"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="72"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="73"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="72"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="73"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="72"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="73"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="72"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="73"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="72"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="73"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="72"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="73"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="72"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="73"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="72"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="73"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="72"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="73"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="72"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="73"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+    </row>
+    <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="80"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
+    </row>
+    <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="72"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="73"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="72"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="73"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="72"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="73"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="72"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="73"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="72"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="73"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="72"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="73"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="72"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="73"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="72"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="73"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="72"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="73"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="72"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="73"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="72"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="73"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="72"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="73"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="72"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="73"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="72"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="73"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="72"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="73"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="72"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="73"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="72"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="73"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="72"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="73"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="72"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="73"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="72"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="73"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="79"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="77"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="79"/>
+    </row>
+    <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="80"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="82"/>
+    </row>
+    <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" s="70"/>
+      <c r="D76" s="71"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="72"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="73"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="72"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="73"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="72"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="73"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="72"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="73"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="72"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="73"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="72"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="73"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="72"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="73"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="72"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="73"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="72"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="73"/>
+    </row>
+    <row r="86" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="74"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="B73:D75"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B52:D52"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'JS Points'!A1" display="Back To Home"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC172FD-0C93-4AB4-985E-6450242C3B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JS Points" sheetId="3" r:id="rId1"/>
-    <sheet name="Interview questions for others" sheetId="10" r:id="rId2"/>
-    <sheet name="React-JS" sheetId="9" r:id="rId3"/>
-    <sheet name=" Array &amp; Object" sheetId="6" r:id="rId4"/>
-    <sheet name="Array-Methods" sheetId="8" r:id="rId5"/>
-    <sheet name="Operators" sheetId="7" r:id="rId6"/>
-    <sheet name="JS ES6 Interview " sheetId="5" r:id="rId7"/>
+    <sheet name="Interview questions for others" sheetId="10" r:id="rId1"/>
+    <sheet name="JS Points" sheetId="3" r:id="rId2"/>
+    <sheet name="JS ES6 Interview " sheetId="5" r:id="rId3"/>
+    <sheet name="React-JS" sheetId="9" r:id="rId4"/>
+    <sheet name=" Array &amp; Object" sheetId="6" r:id="rId5"/>
+    <sheet name="Array-Methods" sheetId="8" r:id="rId6"/>
+    <sheet name="Operators" sheetId="7" r:id="rId7"/>
     <sheet name="JS Error Types" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="254">
   <si>
     <t>Topics</t>
   </si>
@@ -1993,12 +1994,38 @@
     <t>Compilers: 1,  C, C++, JAVA.
                        2,  It covert the whole code into byte code before starting exicution.</t>
   </si>
+  <si>
+    <t>What is React?</t>
+  </si>
+  <si>
+    <t>React is a JavaScript library for building user interfaces. It lets you create reusable components so that your code is easy to read and maintain.</t>
+  </si>
+  <si>
+    <t>What is the difference between React and React Native?</t>
+  </si>
+  <si>
+    <t>React is a JavaScript library for building user interfaces, while React Native is a framework for building native mobile apps.</t>
+  </si>
+  <si>
+    <t>What are the pros and cons of using React?</t>
+  </si>
+  <si>
+    <t>Pros:
+React is fast and scalable.
+It is easy to use and can be used with other frameworks.
+Cons:
+React is not a full-fledged framework.
+It can be difficult to learn for beginners.</t>
+  </si>
+  <si>
+    <t>Course Based Q &amp; A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2207,8 +2234,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2248,6 +2307,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2516,38 +2581,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2567,12 +2604,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2625,9 +2686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2677,54 +2735,12 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2732,56 +2748,76 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2796,26 +2832,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2837,510 +2915,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495954</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>175841</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="601980"/>
-          <a:ext cx="7544454" cy="6706181"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>114770</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="7399020"/>
-          <a:ext cx="7551420" cy="5418290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>129821</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="12885420"/>
-          <a:ext cx="7551420" cy="3238781"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>160604</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="16177260"/>
-          <a:ext cx="7536179" cy="6744284"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>464819</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>76761</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect r="15954"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="22943820"/>
-          <a:ext cx="7513319" cy="6477561"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>168098</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="29527500"/>
-          <a:ext cx="7505700" cy="5288738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>8175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="34831020"/>
-          <a:ext cx="7513320" cy="6408975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>464821</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>30847</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="41231820"/>
-          <a:ext cx="7513320" cy="4237087"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>84303</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="45438060"/>
-          <a:ext cx="7505700" cy="5570703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>53630</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="51107340"/>
-          <a:ext cx="7482840" cy="3345470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>426721</xdr:colOff>
-      <xdr:row>318</xdr:row>
-      <xdr:rowOff>99401</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="54399180"/>
-          <a:ext cx="7475220" cy="3939881"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1287780</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1950720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1478280</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>2423160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3348,7 +2933,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,13 +2997,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>3009900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>3566160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3426,7 +3011,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,13 +3047,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>3116580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>3139440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3476,7 +3061,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3515,13 +3100,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>3299460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>3322320</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3529,7 +3114,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3568,13 +3153,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>3520440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>3543300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3582,7 +3167,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,13 +3206,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2293620</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2301240</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3635,7 +3220,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3671,13 +3256,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2293620</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2301240</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3685,7 +3270,7 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3721,13 +3306,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>693420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>822960</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>982980</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3735,7 +3320,7 @@
         <xdr:cNvPr id="17" name="Connector: Elbow 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3779,13 +3364,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>975360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>701040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>990600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3793,7 +3378,7 @@
         <xdr:cNvPr id="20" name="Connector: Elbow 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3836,6 +3421,499 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495954</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="601980"/>
+          <a:ext cx="7544454" cy="6706181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7399020"/>
+          <a:ext cx="7551420" cy="5418290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>129821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12885420"/>
+          <a:ext cx="7551420" cy="3238781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>160604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="16177260"/>
+          <a:ext cx="7536179" cy="6744284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464819</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>76761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect r="15954"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22943820"/>
+          <a:ext cx="7513319" cy="6477561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>168098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29527500"/>
+          <a:ext cx="7505700" cy="5288738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>8175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="34831020"/>
+          <a:ext cx="7513320" cy="6408975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464821</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>30847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="41231820"/>
+          <a:ext cx="7513320" cy="4237087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>84303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="45438060"/>
+          <a:ext cx="7505700" cy="5570703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>53630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="51107340"/>
+          <a:ext cx="7482840" cy="3345470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426721</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>99401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="54399180"/>
+          <a:ext cx="7475220" cy="3939881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3853,7 +3931,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3897,7 +3981,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3941,7 +4031,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3985,7 +4081,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4059,7 +4161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4092,9 +4194,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4127,6 +4246,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4302,296 +4438,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="72.88671875" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="87"/>
-    </row>
-    <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83">
-        <v>1</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
-        <v>7</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>236</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C15:C16"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? "/>
-    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. "/>
-    <hyperlink ref="C23" location="Operators!A1" display="JS Operators"/>
-    <hyperlink ref="C24" location="'JS Error Types'!A1" display="Explain SyntaxError, ReferenceError and TypeError with examples"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="38" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="31.21875" customWidth="1"/>
   </cols>
@@ -4605,33 +4463,33 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="57" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="57" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="H3" s="39" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="H3" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -4640,7 +4498,7 @@
       <c r="C4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="39" t="s">
         <v>235</v>
       </c>
       <c r="H4" s="2">
@@ -4655,10 +4513,10 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="40" t="s">
         <v>236</v>
       </c>
       <c r="H5" s="2">
@@ -4676,7 +4534,7 @@
       <c r="C6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="3"/>
       <c r="H6" s="2">
         <v>3</v>
       </c>
@@ -4690,7 +4548,7 @@
       <c r="C7" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="3"/>
       <c r="H7" s="2">
         <v>4</v>
       </c>
@@ -4704,7 +4562,7 @@
       <c r="C8" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="3"/>
       <c r="H8" s="2">
         <v>5</v>
       </c>
@@ -4718,7 +4576,7 @@
       <c r="C9" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="3"/>
       <c r="H9" s="2">
         <v>6</v>
       </c>
@@ -4732,7 +4590,7 @@
       <c r="C10" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="3"/>
       <c r="H10" s="2">
         <v>7</v>
       </c>
@@ -4746,7 +4604,7 @@
       <c r="C11" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="3"/>
       <c r="H11" s="2">
         <v>8</v>
       </c>
@@ -4758,7 +4616,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="42"/>
+      <c r="D12" s="3"/>
       <c r="H12" s="2">
         <v>9</v>
       </c>
@@ -4770,7 +4628,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="42"/>
+      <c r="D13" s="3"/>
       <c r="H13" s="2">
         <v>10</v>
       </c>
@@ -4781,33 +4639,33 @@
       <c r="B17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="57" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="57" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="H18" s="39" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="H18" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
@@ -4816,11 +4674,11 @@
       <c r="C19" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="3"/>
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="3" t="s">
         <v>228</v>
       </c>
       <c r="J19" s="2"/>
@@ -4832,11 +4690,11 @@
       <c r="C20" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="3"/>
       <c r="H20" s="2">
         <v>2</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="3" t="s">
         <v>229</v>
       </c>
       <c r="J20" s="2"/>
@@ -4848,11 +4706,11 @@
       <c r="C21" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="3"/>
       <c r="H21" s="2">
         <v>3</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="3" t="s">
         <v>230</v>
       </c>
       <c r="J21" s="2"/>
@@ -4864,11 +4722,11 @@
       <c r="C22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="3"/>
       <c r="H22" s="2">
         <v>4</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="3" t="s">
         <v>231</v>
       </c>
       <c r="J22" s="2"/>
@@ -4880,11 +4738,11 @@
       <c r="C23" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="3"/>
       <c r="H23" s="2">
         <v>5</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="3" t="s">
         <v>232</v>
       </c>
       <c r="J23" s="2"/>
@@ -4896,11 +4754,11 @@
       <c r="C24" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="3"/>
       <c r="H24" s="2">
         <v>6</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -4910,11 +4768,11 @@
       <c r="C25" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="3"/>
       <c r="H25" s="2">
         <v>7</v>
       </c>
-      <c r="I25" s="42"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -4924,11 +4782,11 @@
       <c r="C26" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="3"/>
       <c r="H26" s="2">
         <v>8</v>
       </c>
-      <c r="I26" s="42"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
@@ -4936,11 +4794,11 @@
         <v>9</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="42"/>
+      <c r="D27" s="3"/>
       <c r="H27" s="2">
         <v>9</v>
       </c>
-      <c r="I27" s="42"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
@@ -4948,102 +4806,102 @@
         <v>10</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="42"/>
+      <c r="D28" s="3"/>
       <c r="H28" s="2">
         <v>10</v>
       </c>
-      <c r="I28" s="42"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="2"/>
     </row>
     <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="57" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
     </row>
     <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>2</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>4</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>5</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>6</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>7</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>8</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>9</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>10</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5059,7 +4917,293 @@
     <mergeCell ref="J17:J18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" location="'JS Error Types'!A1" display="Explain Type Error, Syntax Error and Referrence Error"/>
+    <hyperlink ref="C5" location="'JS Error Types'!A1" display="Explain Type Error, Syntax Error and Referrence Error" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:D25"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="72.88671875" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="85" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+    </row>
+    <row r="3" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+    </row>
+    <row r="5" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="49">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>17</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C20" location="' Array &amp; Object'!A1" display="What is Array ? " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C22" location="' Array &amp; Object'!A1" display="JavaScript object. " xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C24" location="Operators!A1" display="JS Operators" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C25" location="'JS Error Types'!A1" display="Explain SyntaxError, ReferenceError and TypeError with examples" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5067,11 +5211,275 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="96.109375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+    </row>
+    <row r="5" spans="2:7" ht="294.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="2:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="58.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="58.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:D30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5082,134 +5490,256 @@
     <col min="4" max="4" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+    </row>
+    <row r="3" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C3" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D3" s="91" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
+    <row r="4" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+    <row r="5" spans="2:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+    <row r="6" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+    <row r="10" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+    <row r="13" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>202</v>
       </c>
     </row>
+    <row r="14" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5226,15 +5756,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="15" t="s">
         <v>69</v>
       </c>
@@ -5246,10 +5776,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
@@ -5261,16 +5791,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="58" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -5278,16 +5808,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="52"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="52"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="14" t="s">
         <v>81</v>
       </c>
@@ -5302,7 +5832,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="52"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="14" t="s">
         <v>85</v>
       </c>
@@ -5317,7 +5847,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="52"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
@@ -5328,7 +5858,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="52"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="14" t="s">
         <v>91</v>
       </c>
@@ -5339,7 +5869,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="52"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="14" t="s">
         <v>93</v>
       </c>
@@ -5352,10 +5882,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
@@ -5377,14 +5907,14 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5398,21 +5928,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>114</v>
       </c>
       <c r="C4" t="s">
@@ -5420,258 +5950,258 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="36" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5680,47 +6210,47 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp"/>
-    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp"/>
-    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp"/>
-    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp"/>
-    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp"/>
-    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp"/>
-    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp"/>
-    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp"/>
-    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp"/>
-    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp"/>
-    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp"/>
-    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0">
@@ -5736,27 +6266,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5764,263 +6294,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E22"/>
-  <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="96.109375" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-    </row>
-    <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="58.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="58.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C8:C9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6036,449 +6311,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="41" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" s="58" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="60" t="s">
+    <row r="3" spans="1:13" s="42" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="72"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="44"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="72"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="44"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="72"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="73"/>
+      <c r="B7" s="44"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="72"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="73"/>
+      <c r="B8" s="44"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="72"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="44"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="72"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="73"/>
+      <c r="B10" s="44"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="72"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="73"/>
+      <c r="B11" s="44"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="72"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="73"/>
+      <c r="B12" s="44"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="72"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="72"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="44"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="72"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="44"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="44"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="72"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="73"/>
+      <c r="B17" s="44"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="72"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="44"/>
+      <c r="D18" s="45"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="72"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="73"/>
+      <c r="B19" s="44"/>
+      <c r="D19" s="45"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="72"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="73"/>
+      <c r="B20" s="44"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="72"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="44"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="73"/>
+      <c r="B22" s="44"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="72"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="73"/>
+      <c r="B23" s="44"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="72"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="73"/>
+      <c r="B24" s="44"/>
+      <c r="D24" s="45"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="73"/>
+      <c r="B25" s="44"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="72"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="73"/>
+      <c r="B26" s="44"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
     </row>
     <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="72"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="73"/>
+      <c r="B30" s="44"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="72"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="73"/>
+      <c r="B31" s="44"/>
+      <c r="D31" s="45"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="73"/>
+      <c r="B32" s="44"/>
+      <c r="D32" s="45"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="72"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="44"/>
+      <c r="D33" s="45"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="72"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="73"/>
+      <c r="B34" s="44"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="72"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="73"/>
+      <c r="B35" s="44"/>
+      <c r="D35" s="45"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="72"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="73"/>
+      <c r="B36" s="44"/>
+      <c r="D36" s="45"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="72"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="73"/>
+      <c r="B37" s="44"/>
+      <c r="D37" s="45"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="72"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="73"/>
+      <c r="B38" s="44"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="72"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="73"/>
+      <c r="B39" s="44"/>
+      <c r="D39" s="45"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="72"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="73"/>
+      <c r="B40" s="44"/>
+      <c r="D40" s="45"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="72"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="73"/>
+      <c r="B41" s="44"/>
+      <c r="D41" s="45"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="72"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="73"/>
+      <c r="B42" s="44"/>
+      <c r="D42" s="45"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="72"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="73"/>
+      <c r="B43" s="44"/>
+      <c r="D43" s="45"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="72"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="73"/>
+      <c r="B44" s="44"/>
+      <c r="D44" s="45"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="72"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="73"/>
+      <c r="B45" s="44"/>
+      <c r="D45" s="45"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="72"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="73"/>
+      <c r="B46" s="44"/>
+      <c r="D46" s="45"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="72"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="73"/>
+      <c r="B47" s="44"/>
+      <c r="D47" s="45"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="72"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="73"/>
+      <c r="B48" s="44"/>
+      <c r="D48" s="45"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="72"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="73"/>
+      <c r="B49" s="44"/>
+      <c r="D49" s="45"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="70"/>
     </row>
     <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="82"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="73"/>
     </row>
     <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="72"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="73"/>
+      <c r="B53" s="44"/>
+      <c r="D53" s="45"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="72"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="73"/>
+      <c r="B54" s="44"/>
+      <c r="D54" s="45"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="72"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="73"/>
+      <c r="B55" s="44"/>
+      <c r="D55" s="45"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="72"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="73"/>
+      <c r="B56" s="44"/>
+      <c r="D56" s="45"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="72"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="73"/>
+      <c r="B57" s="44"/>
+      <c r="D57" s="45"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="72"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="73"/>
+      <c r="B58" s="44"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="72"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="73"/>
+      <c r="B59" s="44"/>
+      <c r="D59" s="45"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="72"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="73"/>
+      <c r="B60" s="44"/>
+      <c r="D60" s="45"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="72"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="73"/>
+      <c r="B61" s="44"/>
+      <c r="D61" s="45"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="72"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="73"/>
+      <c r="B62" s="44"/>
+      <c r="D62" s="45"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="72"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="73"/>
+      <c r="B63" s="44"/>
+      <c r="D63" s="45"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="72"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="73"/>
+      <c r="B64" s="44"/>
+      <c r="D64" s="45"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="72"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="73"/>
+      <c r="B65" s="44"/>
+      <c r="D65" s="45"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="72"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="73"/>
+      <c r="B66" s="44"/>
+      <c r="D66" s="45"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="72"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="73"/>
+      <c r="B67" s="44"/>
+      <c r="D67" s="45"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="72"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="73"/>
+      <c r="B68" s="44"/>
+      <c r="D68" s="45"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="72"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="73"/>
+      <c r="B69" s="44"/>
+      <c r="D69" s="45"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="72"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="73"/>
+      <c r="B70" s="44"/>
+      <c r="D70" s="45"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="72"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="73"/>
+      <c r="B71" s="44"/>
+      <c r="D71" s="45"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="72"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="73"/>
+      <c r="B72" s="44"/>
+      <c r="D72" s="45"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="77"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="79"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="70"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="77"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="79"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="70"/>
     </row>
     <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="80"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="82"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="73"/>
     </row>
     <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="69" t="s">
+      <c r="B76" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="71"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="72"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="73"/>
+      <c r="B77" s="44"/>
+      <c r="D77" s="45"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="72"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="73"/>
+      <c r="B78" s="44"/>
+      <c r="D78" s="45"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="72"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="73"/>
+      <c r="B79" s="44"/>
+      <c r="D79" s="45"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="72"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="73"/>
+      <c r="B80" s="44"/>
+      <c r="D80" s="45"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="72"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="73"/>
+      <c r="B81" s="44"/>
+      <c r="D81" s="45"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="72"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="73"/>
+      <c r="B82" s="44"/>
+      <c r="D82" s="45"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="72"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="73"/>
+      <c r="B83" s="44"/>
+      <c r="D83" s="45"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="72"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="73"/>
+      <c r="B84" s="44"/>
+      <c r="D84" s="45"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="72"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="73"/>
+      <c r="B85" s="44"/>
+      <c r="D85" s="45"/>
     </row>
     <row r="86" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="74"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="76"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6492,8 +6696,8 @@
     <mergeCell ref="B52:D52"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'JS Points'!A1" display="Back To Home"/>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="'JS Points'!A1" display="Back To Home" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC172FD-0C93-4AB4-985E-6450242C3B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C10451D-5E07-44CB-BFAA-7A580EC4DDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="262">
   <si>
     <t>Topics</t>
   </si>
@@ -2019,6 +2019,30 @@
   </si>
   <si>
     <t>Course Based Q &amp; A</t>
+  </si>
+  <si>
+    <t>Call and bind method in Js ?</t>
+  </si>
+  <si>
+    <t>What is event loop in Js?</t>
+  </si>
+  <si>
+    <t>What is immediate exicution?</t>
+  </si>
+  <si>
+    <t>What is Currying inJS?</t>
+  </si>
+  <si>
+    <t>What is Redux?</t>
+  </si>
+  <si>
+    <t>Diff between Class and Functional Component?</t>
+  </si>
+  <si>
+    <t>What is Polyfill?</t>
+  </si>
+  <si>
+    <t>what is React Fragment?</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +2657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2766,9 +2790,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2781,8 +2817,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2859,41 +2919,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4439,10 +4472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4463,19 +4496,19 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="53" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4483,19 +4516,19 @@
       <c r="B3" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="H3" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D4" s="39" t="s">
@@ -4513,7 +4546,7 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="97" t="s">
         <v>238</v>
       </c>
       <c r="D5" s="40" t="s">
@@ -4531,7 +4564,7 @@
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D6" s="3"/>
@@ -4545,7 +4578,7 @@
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>208</v>
       </c>
       <c r="D7" s="3"/>
@@ -4559,7 +4592,7 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D8" s="3"/>
@@ -4573,7 +4606,7 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D9" s="3"/>
@@ -4587,7 +4620,7 @@
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D10" s="3"/>
@@ -4601,7 +4634,7 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D11" s="3"/>
@@ -4615,7 +4648,9 @@
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="H12" s="2">
         <v>9</v>
@@ -4627,7 +4662,9 @@
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="H13" s="2">
         <v>10</v>
@@ -4635,286 +4672,394 @@
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="H14" s="2">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="H15" s="2">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="H16" s="2">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C20" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I20" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J20" s="53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
+    <row r="21" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="H18" s="37" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="H21" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="H20" s="2">
-        <v>2</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="H21" s="2">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D22" s="3"/>
       <c r="H22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D23" s="3"/>
       <c r="H23" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D24" s="3"/>
       <c r="H24" s="2">
-        <v>6</v>
-      </c>
-      <c r="I24" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D25" s="3"/>
       <c r="H25" s="2">
-        <v>7</v>
-      </c>
-      <c r="I25" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D26" s="3"/>
       <c r="H26" s="2">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="H27" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="H28" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-    </row>
-    <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="H29" s="2">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="H30" s="2">
+        <v>9</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="H31" s="2">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="H32" s="2">
+        <v>11</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>234</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="H33" s="2">
+        <v>12</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
+      <c r="H34" s="2">
+        <v>13</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="95"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="95"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="95"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
-        <v>4</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
-        <v>5</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
-        <v>8</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+    </row>
+    <row r="41" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
-        <v>9</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" location="'JS Error Types'!A1" display="Explain Type Error, Syntax Error and Referrence Error" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4942,20 +5087,20 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="56" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4963,8 +5108,8 @@
       <c r="B4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49">
@@ -5036,7 +5181,7 @@
       <c r="B11" s="11">
         <v>7</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -5047,7 +5192,7 @@
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
@@ -5089,7 +5234,7 @@
       <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -5100,7 +5245,7 @@
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
@@ -5228,21 +5373,21 @@
   <sheetData>
     <row r="1" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="53" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5250,8 +5395,8 @@
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="2:7" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
@@ -5302,7 +5447,7 @@
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="58" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -5313,7 +5458,7 @@
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
@@ -5492,20 +5637,20 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="52" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5652,80 +5797,80 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5761,10 +5906,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="15" t="s">
         <v>69</v>
       </c>
@@ -5776,10 +5921,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
@@ -5791,16 +5936,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="70" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -5808,16 +5953,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="63"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="14" t="s">
         <v>81</v>
       </c>
@@ -5832,7 +5977,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="14" t="s">
         <v>85</v>
       </c>
@@ -5847,7 +5992,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="63"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
@@ -5858,7 +6003,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="63"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="14" t="s">
         <v>91</v>
       </c>
@@ -5869,7 +6014,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="14" t="s">
         <v>93</v>
       </c>
@@ -5882,10 +6027,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
@@ -5928,10 +6073,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="29" t="s">
@@ -6317,11 +6462,11 @@
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" s="42" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
@@ -6333,11 +6478,11 @@
       <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="44"/>
@@ -6428,21 +6573,21 @@
       <c r="D26" s="45"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
     </row>
     <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="44"/>
@@ -6525,21 +6670,21 @@
       <c r="D49" s="45"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="68"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="70"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="82"/>
     </row>
     <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="71"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="73"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="85"/>
     </row>
     <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="67"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="44"/>
@@ -6622,26 +6767,26 @@
       <c r="D72" s="45"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="68"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="70"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="82"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="68"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="70"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="82"/>
     </row>
     <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="71"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="73"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="85"/>
     </row>
     <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="67"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="44"/>

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JS Points" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="277">
   <si>
     <t>Topics</t>
   </si>
@@ -1992,6 +1992,123 @@
   <si>
     <t>Compilers: 1,  C, C++, JAVA.
                        2,  It covert the whole code into byte code before starting exicution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React Component </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A piece of reusable of UI code 
+Component describe the UI </t>
+  </si>
+  <si>
+    <t>Heart of React JS App</t>
+  </si>
+  <si>
+    <t>Package.json( Simple info )</t>
+  </si>
+  <si>
+    <t>Package.lock.json</t>
+  </si>
+  <si>
+    <t>Detailed information about your project dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to Create Component &amp; its responsibility?  </t>
+  </si>
+  <si>
+    <t>Using Function method 
+Class method
+Return the Code</t>
+  </si>
+  <si>
+    <t>Important files in React Package</t>
+  </si>
+  <si>
+    <t>index.html( react app template file )
+index.js( react app main file )
+App.js( source file )</t>
+  </si>
+  <si>
+    <t>Real DOM ( Web Application )</t>
+  </si>
+  <si>
+    <t>Structural representation of HTML elements of an web application
+Header and footer would be same for all web apps</t>
+  </si>
+  <si>
+    <t>Virtual DOM ( React JS )</t>
+  </si>
+  <si>
+    <t>Light weight of the JS Object
+A copy of the real DOM</t>
+  </si>
+  <si>
+    <t>Public/Index.html contains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div id= "root" &gt; &lt;/div&gt; 
+only 1 line of code </t>
+  </si>
+  <si>
+    <t>Src/Index.js contains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import ReactDOM from 'react-dom'
+import App from './App'
+it expects two arguments
+what you want to render?
+where you want to render?
+ReactDOM.render(&lt;BrowserRouter&gt; &lt;App /&gt; &lt;/BrowserRouter&gt;, document.getElementById('root'))
+Element [ Group of tags ]
+</t>
+  </si>
+  <si>
+    <t>App.js contains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always we start with App.js file &amp; then start to create components 
+import React from 'react'
+const App = () =&gt; {
+  return (
+    &lt;div&gt;
+    &lt;/div&gt;
+  )
+}
+export default App </t>
+  </si>
+  <si>
+    <t>how to get tag reference?</t>
+  </si>
+  <si>
+    <t>using Object.Property method 
+document.getElementbyId['abc']
+.innerHTML = " "</t>
+  </si>
+  <si>
+    <t>Webpack</t>
+  </si>
+  <si>
+    <t>A Bundle of one or more than JS files into static files
+[i.e Images/ CSS/ JS-Files ] internally react uses this mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class contains </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties &amp; Methods 
+we can't write return statement directly without the support of Render method </t>
+  </si>
+  <si>
+    <t>Responsibility of component</t>
+  </si>
+  <si>
+    <t>Return the UI code using div elements</t>
+  </si>
+  <si>
+    <t>How does component &amp; class files starts ?</t>
+  </si>
+  <si>
+    <t>Always start with Upper Case &amp; both should be the same name</t>
   </si>
 </sst>
 </file>
@@ -2572,7 +2689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2692,37 +2809,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2737,47 +2827,74 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2796,26 +2913,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2855,7 +2981,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +3025,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +3069,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +3113,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,7 +3157,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3079,7 +3205,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3249,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3167,7 +3293,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3337,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3381,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3299,7 +3425,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,7 +3474,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3552,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3476,7 +3602,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3529,7 +3655,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3582,7 +3708,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3635,7 +3761,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3811,7 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3735,7 +3861,7 @@
         <xdr:cNvPr id="17" name="Connector: Elbow 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3919,7 @@
         <xdr:cNvPr id="20" name="Connector: Elbow 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4305,7 +4431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4322,28 +4448,28 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="61" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83">
+      <c r="B4" s="56">
         <v>1</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="57" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4406,7 +4532,7 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4417,7 +4543,7 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
@@ -4459,7 +4585,7 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="65" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -4470,7 +4596,7 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4557,7 +4683,7 @@
       <c r="C24" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="46" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4583,7 +4709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4605,19 +4731,19 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="66" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4625,13 +4751,13 @@
       <c r="B3" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="H3" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -4640,7 +4766,7 @@
       <c r="C4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="45" t="s">
         <v>235</v>
       </c>
       <c r="H4" s="2">
@@ -4658,7 +4784,7 @@
       <c r="C5" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="46" t="s">
         <v>236</v>
       </c>
       <c r="H5" s="2">
@@ -4781,19 +4907,19 @@
       <c r="B17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="66" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="66" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4801,13 +4927,13 @@
       <c r="B18" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
       <c r="H18" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
@@ -4959,10 +5085,10 @@
       <c r="B31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="66" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4970,8 +5096,8 @@
       <c r="B32" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
     </row>
     <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
@@ -5068,10 +5194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5193,14 +5319,179 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="B12" s="92">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="43" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5231,10 +5522,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="15" t="s">
         <v>69</v>
       </c>
@@ -5246,10 +5537,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
@@ -5261,16 +5552,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="67" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -5278,16 +5569,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="52"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="52"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="14" t="s">
         <v>81</v>
       </c>
@@ -5302,7 +5593,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="52"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="14" t="s">
         <v>85</v>
       </c>
@@ -5317,7 +5608,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="52"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
@@ -5328,7 +5619,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="52"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="14" t="s">
         <v>91</v>
       </c>
@@ -5339,7 +5630,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="52"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="14" t="s">
         <v>93</v>
       </c>
@@ -5352,10 +5643,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
@@ -5398,10 +5689,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
@@ -5785,10 +6076,10 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5796,8 +6087,8 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -5848,7 +6139,7 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -5859,7 +6150,7 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
@@ -6036,143 +6327,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" s="58" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="60" t="s">
+    <row r="3" spans="1:13" s="49" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="72"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="72"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="72"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="73"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="72"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="73"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="72"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="72"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="73"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="72"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="73"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="72"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="73"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="72"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="72"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="72"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="52"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="72"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="73"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="72"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="52"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="72"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="73"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="52"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="72"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="73"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="52"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="72"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="73"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="72"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="73"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="52"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="72"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="73"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="52"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="73"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="52"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="72"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="73"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="77"/>
@@ -6185,111 +6476,111 @@
       <c r="D28" s="82"/>
     </row>
     <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="72"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="73"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="52"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="72"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="73"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="52"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="73"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="72"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="72"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="73"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="72"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="73"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="52"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="72"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="73"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="52"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="72"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="73"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="52"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="72"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="73"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="52"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="72"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="73"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="72"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="73"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="72"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="73"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="72"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="73"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="72"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="73"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="72"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="73"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="72"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="73"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="72"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="73"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="52"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="72"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="73"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="52"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="72"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="73"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="52"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="72"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="73"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="52"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="77"/>
@@ -6302,111 +6593,111 @@
       <c r="D51" s="82"/>
     </row>
     <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="76"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="72"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="73"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="52"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="72"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="73"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="52"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="72"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="73"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="52"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="72"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="73"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="52"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="72"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="73"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="72"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="73"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="52"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="72"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="73"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="52"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="72"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="73"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="52"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="72"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="73"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="52"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="72"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="73"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="52"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="72"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="73"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="72"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="73"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="52"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="72"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="73"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="52"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="72"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="73"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="52"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="72"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="73"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="52"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="72"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="73"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="52"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="72"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="73"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="72"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="73"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="52"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="72"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="73"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="52"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="72"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="73"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="52"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="77"/>
@@ -6424,61 +6715,61 @@
       <c r="D75" s="82"/>
     </row>
     <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="69" t="s">
+      <c r="B76" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="71"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="76"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="72"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="73"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="52"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="72"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="73"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="52"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="72"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="73"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="52"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="72"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="73"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="52"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="72"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="73"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="52"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="72"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="73"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="52"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="72"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="73"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="52"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="72"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="73"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="52"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="72"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="73"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="52"/>
     </row>
     <row r="86" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="74"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="76"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="277">
   <si>
     <t>Topics</t>
   </si>
@@ -2369,7 +2369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2684,12 +2684,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2841,6 +2852,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2940,7 +2954,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2981,7 +2995,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3025,7 +3039,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3069,7 +3083,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3113,7 +3127,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3157,7 +3171,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3219,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3263,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3307,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3337,7 +3351,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +3395,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3425,7 +3439,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3474,7 +3488,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3552,7 +3566,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3602,7 +3616,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3655,7 +3669,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3708,7 +3722,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3761,7 +3775,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3811,7 +3825,7 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3861,7 +3875,7 @@
         <xdr:cNvPr id="17" name="Connector: Elbow 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3919,7 +3933,7 @@
         <xdr:cNvPr id="20" name="Connector: Elbow 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4448,10 +4462,10 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="62" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4459,8 +4473,8 @@
       <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="62"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="63"/>
     </row>
     <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="56">
@@ -4532,7 +4546,7 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4543,7 +4557,7 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
@@ -4585,7 +4599,7 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="66" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -4596,7 +4610,7 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4731,19 +4745,19 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="67" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="67" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4751,13 +4765,13 @@
       <c r="B3" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="H3" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -4907,19 +4921,19 @@
       <c r="B17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="67" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="J17" s="66" t="s">
+      <c r="J17" s="67" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4927,13 +4941,13 @@
       <c r="B18" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
       <c r="H18" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
@@ -5085,10 +5099,10 @@
       <c r="B31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="67" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5096,8 +5110,8 @@
       <c r="B32" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
     </row>
     <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
@@ -5194,10 +5208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5319,7 +5333,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="92">
+      <c r="B12" s="59">
         <v>10</v>
       </c>
       <c r="C12" s="43" t="s">
@@ -5492,6 +5506,14 @@
       </c>
       <c r="D27" s="2" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="93">
+        <v>26</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5522,10 +5544,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="15" t="s">
         <v>69</v>
       </c>
@@ -5537,10 +5559,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
@@ -5552,16 +5574,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="68" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -5569,16 +5591,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="72"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="72"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="14" t="s">
         <v>81</v>
       </c>
@@ -5593,7 +5615,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="72"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="14" t="s">
         <v>85</v>
       </c>
@@ -5608,7 +5630,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="72"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
@@ -5619,7 +5641,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="72"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="14" t="s">
         <v>91</v>
       </c>
@@ -5630,7 +5652,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="72"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="14" t="s">
         <v>93</v>
       </c>
@@ -5643,10 +5665,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
@@ -5689,10 +5711,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="74"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
@@ -6076,10 +6098,10 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="67" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6087,8 +6109,8 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
     </row>
     <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -6139,7 +6161,7 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -6150,7 +6172,7 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
@@ -6333,11 +6355,11 @@
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" s="49" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
@@ -6349,11 +6371,11 @@
       <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="51"/>
@@ -6466,21 +6488,21 @@
       <c r="D26" s="52"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
     </row>
     <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="90" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="51"/>
@@ -6583,21 +6605,21 @@
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="80"/>
     </row>
     <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="82"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="83"/>
     </row>
     <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="75"/>
-      <c r="D52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="51"/>
@@ -6700,26 +6722,26 @@
       <c r="D72" s="52"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="77"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="79"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="80"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="77"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="79"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="80"/>
     </row>
     <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="80"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="82"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="83"/>
     </row>
     <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="74" t="s">
+      <c r="B76" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="75"/>
-      <c r="D76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="51"/>

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="278">
   <si>
     <t>Topics</t>
   </si>
@@ -2109,6 +2109,10 @@
   </si>
   <si>
     <t>Always start with Upper Case &amp; both should be the same name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ </t>
   </si>
 </sst>
 </file>
@@ -2855,6 +2859,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2953,9 +2960,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2995,7 +2999,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +3043,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3083,7 +3087,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3127,7 +3131,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,7 +3175,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3219,7 +3223,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3267,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3311,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3351,7 +3355,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3395,7 +3399,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3439,7 +3443,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,7 +3492,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3566,7 +3570,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3616,7 +3620,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3669,7 +3673,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3722,7 +3726,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3775,7 +3779,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3825,7 +3829,7 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3875,7 +3879,7 @@
         <xdr:cNvPr id="17" name="Connector: Elbow 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3933,7 +3937,7 @@
         <xdr:cNvPr id="20" name="Connector: Elbow 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4199,7 +4203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4234,7 +4238,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4462,10 +4466,10 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="63" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4473,8 +4477,8 @@
       <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="56">
@@ -4546,7 +4550,7 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="65" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4557,7 +4561,7 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
@@ -4599,7 +4603,7 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="67" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -4610,7 +4614,7 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4745,19 +4749,19 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="68" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4765,13 +4769,13 @@
       <c r="B3" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="H3" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -4921,19 +4925,19 @@
       <c r="B17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="68" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="J17" s="67" t="s">
+      <c r="J17" s="68" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4941,13 +4945,13 @@
       <c r="B18" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
       <c r="H18" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
@@ -5099,10 +5103,10 @@
       <c r="B31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="68" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5110,8 +5114,8 @@
       <c r="B32" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
     </row>
     <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
@@ -5210,8 +5214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5509,11 +5513,11 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="93">
+      <c r="B28" s="60">
         <v>26</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5544,10 +5548,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="71"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="15" t="s">
         <v>69</v>
       </c>
@@ -5559,10 +5563,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="72"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
@@ -5574,16 +5578,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="69" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -5591,16 +5595,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="73"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="73"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="14" t="s">
         <v>81</v>
       </c>
@@ -5615,7 +5619,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="73"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="14" t="s">
         <v>85</v>
       </c>
@@ -5630,7 +5634,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="73"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
@@ -5641,7 +5645,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="73"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="14" t="s">
         <v>91</v>
       </c>
@@ -5652,7 +5656,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="73"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="14" t="s">
         <v>93</v>
       </c>
@@ -5665,10 +5669,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
@@ -5711,10 +5715,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="75"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
@@ -6098,10 +6102,10 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6109,8 +6113,8 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
     </row>
     <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -6161,7 +6165,7 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="65" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -6172,7 +6176,7 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
@@ -6355,11 +6359,11 @@
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" s="49" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
@@ -6371,11 +6375,11 @@
       <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="51"/>
@@ -6488,21 +6492,21 @@
       <c r="D26" s="52"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
     </row>
     <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="91" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="51"/>
@@ -6605,21 +6609,21 @@
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="78"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="80"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="81"/>
     </row>
     <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="83"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="84"/>
     </row>
     <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="75" t="s">
+      <c r="B52" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="78"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="51"/>
@@ -6722,26 +6726,26 @@
       <c r="D72" s="52"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="78"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="80"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="81"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="78"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="80"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="81"/>
     </row>
     <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="81"/>
-      <c r="C75" s="82"/>
-      <c r="D75" s="83"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="84"/>
     </row>
     <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="78"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="51"/>

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D0A40-9118-4E9B-ACE7-6F8985363704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JS Points" sheetId="3" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="289">
   <si>
     <t>Topics</t>
   </si>
@@ -2114,12 +2115,76 @@
     <t xml:space="preserve">
  </t>
   </si>
+  <si>
+    <t xml:space="preserve">Explain virtual DOM. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual Dom is a simple JavaScript object that is the exact copy of corresponding real DOM. 
+It can be considered as a node tree that consists of elements,their attributes and other properties. 
+Using the render function in react, it creates a node tree  and update its based on the changes that occurs in the data model. 
+This changes are usually triggered by users of the actions caused by the system. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Virtual DOM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Changes can be made easily
+2.Minimal memory wastage
+3.JSX element is updated if the
+    element exists
+4.Cannot update HTML directly
+5.Faster updates</t>
+    </r>
+  </si>
+  <si>
+    <t>Important features of React?</t>
+  </si>
+  <si>
+    <t>1. React makes use of a single-direction data flow model.
+2. It deals with complete server-side data processing and handling.
+3. React uses Virtual DOM that has many advantages of its own.</t>
+  </si>
+  <si>
+    <t>What is JSX?</t>
+  </si>
+  <si>
+    <t>JSX is the abbreviation of JavaScript XML. It is a file that is used in React to bring out the essence of JavaScript to React. It even includes bringing out HTML and the easy syntax of JavaScript. This ensures that the resulting HTML file will have high readability, thereby relatively increasing the performance of the application.</t>
+  </si>
+  <si>
+    <t>No, browsers cannot read JSX files directly. It can only read the objects provided by JavaScript. Now, to make a browser read a JSX file, it has to be transformed to a JavaScript object using JSX transformers, and only then it can be fed into the browser for further use in the pipeline.</t>
+  </si>
+  <si>
+    <t>Can browsers read a JSX file?</t>
+  </si>
+  <si>
+    <t>Writing code is complicated as it uses JSX and inline template formatting. Beginners might find it tough to cope with its syntaxes and methods. The library contains a huge repository of information, which might be overwhelming. React is a simple library and not a complete framework hence calls for dependencies.</t>
+  </si>
+  <si>
+    <t>Disadvantages of React</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2324,6 +2389,13 @@
       <u/>
       <sz val="22"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2818,18 +2890,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2837,8 +2900,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2859,7 +2921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2919,7 +2981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2960,6 +3022,18 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2981,6 +3055,200 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1821180</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E2A9D0-6317-F80A-734A-BA487709DB1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421380" y="2209800"/>
+          <a:ext cx="1821180" cy="1798320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3657600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460CD100-4C60-9655-E767-3F618142FBDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5288280" y="2217420"/>
+          <a:ext cx="1790700" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
+            <a:t>Real DOM:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>1.Changes can be expensive</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>2.High demand for memory and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>more wastage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>3.Creates a new DOM every       time an</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>element gets updated</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>4.Able to directly manipulate HTML</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>5.Slow updates</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2999,7 +3267,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3311,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3087,7 +3355,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3131,7 +3399,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3443,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3223,7 +3491,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3535,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,7 +3579,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3355,7 +3623,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3399,7 +3667,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3443,7 +3711,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3740,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3492,7 +3760,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3570,7 +3838,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3620,7 +3888,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3673,7 +3941,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3726,7 +3994,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3779,7 +4047,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3829,7 +4097,7 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3879,7 +4147,7 @@
         <xdr:cNvPr id="17" name="Connector: Elbow 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3937,7 +4205,7 @@
         <xdr:cNvPr id="20" name="Connector: Elbow 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3980,7 +4248,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3997,7 +4265,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4041,7 +4315,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4085,7 +4365,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4129,7 +4415,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4236,6 +4528,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4271,6 +4580,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4446,7 +4772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -4466,28 +4792,28 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56">
+      <c r="B4" s="52">
         <v>1</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="53" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4550,7 +4876,7 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="61" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4561,7 +4887,7 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
@@ -4603,7 +4929,7 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="63" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -4614,7 +4940,7 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4701,7 +5027,7 @@
       <c r="C24" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="43" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4713,10 +5039,10 @@
     <mergeCell ref="C15:C16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? "/>
-    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. "/>
-    <hyperlink ref="C23" location="Operators!A1" display="JS Operators"/>
-    <hyperlink ref="C24" location="'JS Error Types'!A1" display="Explain SyntaxError, ReferenceError and TypeError with examples"/>
+    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. " xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C23" location="Operators!A1" display="JS Operators" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C24" location="'JS Error Types'!A1" display="Explain SyntaxError, ReferenceError and TypeError with examples" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4724,18 +5050,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="30.88671875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="53.5546875" style="40" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="31.21875" customWidth="1"/>
   </cols>
@@ -4749,19 +5075,19 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="64" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4769,13 +5095,13 @@
       <c r="B3" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="H3" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -4784,7 +5110,7 @@
       <c r="C4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="42" t="s">
         <v>235</v>
       </c>
       <c r="H4" s="2">
@@ -4795,14 +5121,14 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="43" t="s">
         <v>236</v>
       </c>
       <c r="H5" s="2">
@@ -4813,14 +5139,16 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="H6" s="2">
         <v>3</v>
       </c>
@@ -4834,7 +5162,7 @@
       <c r="C7" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="3"/>
       <c r="H7" s="2">
         <v>4</v>
       </c>
@@ -4848,7 +5176,7 @@
       <c r="C8" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="3"/>
       <c r="H8" s="2">
         <v>5</v>
       </c>
@@ -4862,7 +5190,7 @@
       <c r="C9" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="3"/>
       <c r="H9" s="2">
         <v>6</v>
       </c>
@@ -4876,7 +5204,7 @@
       <c r="C10" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="3"/>
       <c r="H10" s="2">
         <v>7</v>
       </c>
@@ -4890,332 +5218,441 @@
       <c r="C11" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="3"/>
       <c r="H11" s="2">
         <v>8</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="42"/>
+      <c r="C12" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="H12" s="2">
         <v>9</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="H13" s="2">
         <v>10</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="J17" s="68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="H18" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
+    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="90"/>
+    </row>
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="90"/>
+    </row>
+    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="90"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="93"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="90"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="93"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="90"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="J19" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="93"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="90"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="H20" s="2">
-        <v>2</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="93"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="90"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="93"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="90"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="90"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="H21" s="2">
+      <c r="H26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="H22" s="2">
-        <v>4</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="H24" s="2">
-        <v>6</v>
-      </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="H25" s="2">
-        <v>7</v>
-      </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="42"/>
-      <c r="H26" s="2">
-        <v>8</v>
-      </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="42"/>
-      <c r="H27" s="2">
-        <v>9</v>
-      </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="H27" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="H30" s="2">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="H32" s="2">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="H33" s="2">
+        <v>6</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="H34" s="2">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="H35" s="2">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="H36" s="2">
+        <v>9</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="42"/>
-      <c r="H28" s="2">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="H37" s="2">
         <v>10</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
+      <c r="I37" s="3"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C40" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D40" s="64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="39" t="s">
+    <row r="41" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B41" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-    </row>
-    <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+    </row>
+    <row r="42" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C42" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="42"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
         <v>2</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
         <v>4</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
         <v>5</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
         <v>6</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
         <v>7</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
         <v>8</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
         <v>9</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
         <v>10</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" location="'JS Error Types'!A1" display="Explain Type Error, Syntax Error and Referrence Error"/>
+    <hyperlink ref="C5" location="'JS Error Types'!A1" display="Explain Type Error, Syntax Error and Referrence Error" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5337,13 +5774,13 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="59">
+      <c r="B12" s="55">
         <v>10</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="41" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5354,7 +5791,7 @@
       <c r="C13" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="3" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5387,7 +5824,7 @@
       <c r="C16" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="3" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5398,7 +5835,7 @@
       <c r="C17" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="3" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5409,7 +5846,7 @@
       <c r="C18" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="3" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5420,7 +5857,7 @@
       <c r="C19" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="3" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5431,7 +5868,7 @@
       <c r="C20" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="3" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5442,7 +5879,7 @@
       <c r="C21" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="3" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5453,7 +5890,7 @@
       <c r="C22" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="3" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5464,7 +5901,7 @@
       <c r="C23" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="3" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5475,7 +5912,7 @@
       <c r="C24" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="3" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5486,7 +5923,7 @@
       <c r="C25" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="3" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5513,7 +5950,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="60">
+      <c r="B28" s="56">
         <v>26</v>
       </c>
       <c r="C28" s="40" t="s">
@@ -5526,7 +5963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5548,10 +5985,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="15" t="s">
         <v>69</v>
       </c>
@@ -5563,10 +6000,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
@@ -5578,16 +6015,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="65" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -5595,16 +6032,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="74"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="14" t="s">
         <v>81</v>
       </c>
@@ -5619,7 +6056,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="14" t="s">
         <v>85</v>
       </c>
@@ -5634,7 +6071,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="74"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
@@ -5645,7 +6082,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="74"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="14" t="s">
         <v>91</v>
       </c>
@@ -5656,7 +6093,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="74"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="14" t="s">
         <v>93</v>
       </c>
@@ -5669,10 +6106,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
@@ -5694,14 +6131,14 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5715,10 +6152,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="75"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
@@ -5997,39 +6434,39 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp"/>
-    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp"/>
-    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp"/>
-    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp"/>
-    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp"/>
-    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp"/>
-    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp"/>
-    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp"/>
-    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp"/>
-    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp"/>
-    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp"/>
-    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
@@ -6037,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0">
@@ -6071,9 +6508,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -6082,7 +6519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView topLeftCell="C20" workbookViewId="0">
@@ -6102,10 +6539,10 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6113,8 +6550,8 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -6165,7 +6602,7 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="61" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -6176,7 +6613,7 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
@@ -6337,7 +6774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6353,449 +6790,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" s="49" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="85" t="s">
+    <row r="3" spans="1:13" s="45" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="47"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
+      <c r="B6" s="47"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="51"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="47"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="51"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="52"/>
+      <c r="B8" s="47"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="51"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="47"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="51"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="52"/>
+      <c r="B10" s="47"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="51"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="52"/>
+      <c r="B11" s="47"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="51"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="47"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="47"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="51"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="47"/>
+      <c r="D14" s="48"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="47"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="47"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="51"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="47"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="51"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="47"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="51"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="47"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="51"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="51"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="47"/>
+      <c r="D21" s="48"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="51"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="47"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="51"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="47"/>
+      <c r="D23" s="48"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="51"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="47"/>
+      <c r="D24" s="48"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="51"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="52"/>
+      <c r="B25" s="47"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="51"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="52"/>
+      <c r="B26" s="47"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="80"/>
     </row>
     <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="51"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="52"/>
+      <c r="B30" s="47"/>
+      <c r="D30" s="48"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="51"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="47"/>
+      <c r="D31" s="48"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="51"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="52"/>
+      <c r="B32" s="47"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="51"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="47"/>
+      <c r="D33" s="48"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="51"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="52"/>
+      <c r="B34" s="47"/>
+      <c r="D34" s="48"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="51"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="52"/>
+      <c r="B35" s="47"/>
+      <c r="D35" s="48"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="51"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="47"/>
+      <c r="D36" s="48"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="51"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="52"/>
+      <c r="B37" s="47"/>
+      <c r="D37" s="48"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="51"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="47"/>
+      <c r="D38" s="48"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="51"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="47"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="51"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="47"/>
+      <c r="D40" s="48"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="51"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="52"/>
+      <c r="B41" s="47"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="51"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="52"/>
+      <c r="B42" s="47"/>
+      <c r="D42" s="48"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="51"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="52"/>
+      <c r="B43" s="47"/>
+      <c r="D43" s="48"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="51"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="52"/>
+      <c r="B44" s="47"/>
+      <c r="D44" s="48"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="51"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="47"/>
+      <c r="D45" s="48"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="51"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="52"/>
+      <c r="B46" s="47"/>
+      <c r="D46" s="48"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="51"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="52"/>
+      <c r="B47" s="47"/>
+      <c r="D47" s="48"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="51"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="52"/>
+      <c r="B48" s="47"/>
+      <c r="D48" s="48"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="51"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="52"/>
+      <c r="B49" s="47"/>
+      <c r="D49" s="48"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="81"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
     </row>
     <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="82"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="84"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="80"/>
     </row>
     <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="78"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="74"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="51"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="52"/>
+      <c r="B53" s="47"/>
+      <c r="D53" s="48"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="51"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="52"/>
+      <c r="B54" s="47"/>
+      <c r="D54" s="48"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="51"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="52"/>
+      <c r="B55" s="47"/>
+      <c r="D55" s="48"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="51"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="52"/>
+      <c r="B56" s="47"/>
+      <c r="D56" s="48"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="51"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="47"/>
+      <c r="D57" s="48"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="51"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="52"/>
+      <c r="B58" s="47"/>
+      <c r="D58" s="48"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="51"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="52"/>
+      <c r="B59" s="47"/>
+      <c r="D59" s="48"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="51"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="52"/>
+      <c r="B60" s="47"/>
+      <c r="D60" s="48"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="51"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="52"/>
+      <c r="B61" s="47"/>
+      <c r="D61" s="48"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="51"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="52"/>
+      <c r="B62" s="47"/>
+      <c r="D62" s="48"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="51"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="47"/>
+      <c r="D63" s="48"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="51"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="52"/>
+      <c r="B64" s="47"/>
+      <c r="D64" s="48"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="51"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="52"/>
+      <c r="B65" s="47"/>
+      <c r="D65" s="48"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="51"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="52"/>
+      <c r="B66" s="47"/>
+      <c r="D66" s="48"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="51"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="52"/>
+      <c r="B67" s="47"/>
+      <c r="D67" s="48"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="51"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="52"/>
+      <c r="B68" s="47"/>
+      <c r="D68" s="48"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="51"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="47"/>
+      <c r="D69" s="48"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="51"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="52"/>
+      <c r="B70" s="47"/>
+      <c r="D70" s="48"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="51"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="52"/>
+      <c r="B71" s="47"/>
+      <c r="D71" s="48"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="51"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="52"/>
+      <c r="B72" s="47"/>
+      <c r="D72" s="48"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="79"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="81"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="77"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="79"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="81"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
     </row>
     <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="82"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="84"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="80"/>
     </row>
     <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="78"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="74"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="51"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="52"/>
+      <c r="B77" s="47"/>
+      <c r="D77" s="48"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="51"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="52"/>
+      <c r="B78" s="47"/>
+      <c r="D78" s="48"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="51"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="52"/>
+      <c r="B79" s="47"/>
+      <c r="D79" s="48"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="51"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="52"/>
+      <c r="B80" s="47"/>
+      <c r="D80" s="48"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="51"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="52"/>
+      <c r="B81" s="47"/>
+      <c r="D81" s="48"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="51"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="52"/>
+      <c r="B82" s="47"/>
+      <c r="D82" s="48"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="51"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="52"/>
+      <c r="B83" s="47"/>
+      <c r="D83" s="48"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="51"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="52"/>
+      <c r="B84" s="47"/>
+      <c r="D84" s="48"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="51"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="52"/>
+      <c r="B85" s="47"/>
+      <c r="D85" s="48"/>
     </row>
     <row r="86" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="53"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="55"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6809,8 +7175,8 @@
     <mergeCell ref="B52:D52"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'JS Points'!A1" display="Back To Home"/>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="'JS Points'!A1" display="Back To Home" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D0A40-9118-4E9B-ACE7-6F8985363704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JS Points" sheetId="3" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="291">
   <si>
     <t>Topics</t>
   </si>
@@ -1811,9 +1810,6 @@
     <t>Hoisting in Javascript</t>
   </si>
   <si>
-    <t>Removing duplicates from array?</t>
-  </si>
-  <si>
     <t>Pure component ?</t>
   </si>
   <si>
@@ -2119,12 +2115,6 @@
     <t xml:space="preserve">Explain virtual DOM. </t>
   </si>
   <si>
-    <t xml:space="preserve">Virtual Dom is a simple JavaScript object that is the exact copy of corresponding real DOM. 
-It can be considered as a node tree that consists of elements,their attributes and other properties. 
-Using the render function in react, it creates a node tree  and update its based on the changes that occurs in the data model. 
-This changes are usually triggered by users of the actions caused by the system. </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2179,12 +2169,160 @@
   <si>
     <t>Disadvantages of React</t>
   </si>
+  <si>
+    <t>Diff between state and variable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hoisting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is JavaScript's default behavior of moving all declarations to the top of the current scope (to the top of the current script or the current function).                                        Variables defined with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are hoisted to the top of the block, but not initialized </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ReferenceError)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Virtual DOM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a simple JavaScript object that is the exact copy of corresponding real DOM. 
+It can be considered as a node tree that consists of elements,their attributes and other properties. 
+Using the render function in react, it creates a node tree  and update its based on the changes that occurs in the data model. 
+This changes are usually triggered by users of the actions caused by the system. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shallow copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of an object create a new object and copies all the field of object to the new object (either it is primitive or a reference). In case of non-primitive types only reference will be copied to the new instance. Automatic changes the new object's value if old object change some value.                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deep copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of an object create a fully independent copy of an object. In case of deep copy everything will be copied to the new object.No changes occur in new object's value even after changing old objec'st value.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2394,6 +2532,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2776,7 +2922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2924,6 +3070,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3023,17 +3181,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3073,7 +3222,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E2A9D0-6317-F80A-734A-BA487709DB1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4E2A9D0-6317-F80A-734A-BA487709DB1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3142,7 +3291,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460CD100-4C60-9655-E767-3F618142FBDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{460CD100-4C60-9655-E767-3F618142FBDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3416,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,7 +3460,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3355,7 +3504,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3399,7 +3548,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3443,7 +3592,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3491,7 +3640,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3535,7 +3684,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3579,7 +3728,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3623,7 +3772,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3816,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3711,7 +3860,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,7 +3909,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3838,7 +3987,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3888,7 +4037,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3941,7 +4090,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,7 +4143,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4047,7 +4196,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4097,7 +4246,7 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4147,7 +4296,7 @@
         <xdr:cNvPr id="17" name="Connector: Elbow 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4205,7 +4354,7 @@
         <xdr:cNvPr id="20" name="Connector: Elbow 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4268,7 +4417,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4318,7 +4467,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4368,7 +4517,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4418,7 +4567,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4495,7 +4644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4528,26 +4677,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4580,23 +4712,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4772,7 +4887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -4792,10 +4907,10 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="63" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4803,8 +4918,8 @@
       <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52">
@@ -4876,18 +4991,18 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="65" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
@@ -4929,7 +5044,7 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="67" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -4940,7 +5055,7 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5025,10 +5140,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5039,10 +5154,10 @@
     <mergeCell ref="C15:C16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. " xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C23" location="Operators!A1" display="JS Operators" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C24" location="'JS Error Types'!A1" display="Explain SyntaxError, ReferenceError and TypeError with examples" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? "/>
+    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. "/>
+    <hyperlink ref="C23" location="Operators!A1" display="JS Operators"/>
+    <hyperlink ref="C24" location="'JS Error Types'!A1" display="Explain SyntaxError, ReferenceError and TypeError with examples"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5050,11 +5165,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5068,26 +5183,26 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="64" t="s">
+      <c r="I2" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="68" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5095,13 +5210,13 @@
       <c r="B3" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="H3" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -5111,13 +5226,13 @@
         <v>207</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -5126,16 +5241,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -5144,10 +5259,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
@@ -5155,28 +5270,32 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="94" t="s">
+        <v>288</v>
+      </c>
       <c r="H7" s="2">
         <v>4</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>290</v>
+      </c>
       <c r="H8" s="2">
         <v>5</v>
       </c>
@@ -5202,7 +5321,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D10" s="3"/>
       <c r="H10" s="2">
@@ -5211,29 +5330,31 @@
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="H11" s="2">
         <v>8</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="3" t="s">
         <v>279</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="H12" s="2">
         <v>9</v>
@@ -5241,180 +5362,180 @@
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="H13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="D14" s="93" t="s">
-        <v>284</v>
-      </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="90"/>
-    </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="90"/>
-    </row>
-    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="57"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D16" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="H16" s="90"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="90"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="60"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="93"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="90"/>
+      <c r="D17" s="60"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="57"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="93"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="90"/>
+      <c r="D18" s="60"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="93"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="90"/>
+      <c r="D19" s="60"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="93"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="90"/>
+      <c r="D20" s="60"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="93"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="90"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="90"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="57"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="64" t="s">
+      <c r="C25" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="64" t="s">
+      <c r="I25" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" s="68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="H26" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J26" s="64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="H27" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D28" s="3"/>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>228</v>
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>211</v>
       </c>
       <c r="D29" s="3"/>
       <c r="H29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>229</v>
@@ -5423,14 +5544,14 @@
     </row>
     <row r="30" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>212</v>
       </c>
       <c r="D30" s="3"/>
       <c r="H30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>230</v>
@@ -5439,14 +5560,14 @@
     </row>
     <row r="31" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D31" s="3"/>
       <c r="H31" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>231</v>
@@ -5455,191 +5576,177 @@
     </row>
     <row r="32" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>217</v>
       </c>
       <c r="D32" s="3"/>
       <c r="H32" s="2">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I32" s="3"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D33" s="3"/>
       <c r="H33" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>223</v>
       </c>
       <c r="D34" s="3"/>
       <c r="H34" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="D35" s="3"/>
       <c r="H35" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="H36" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
-        <v>10</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="H37" s="2">
-        <v>10</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="40" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
+    <row r="39" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C39" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+    </row>
+    <row r="41" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D40" s="64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-    </row>
-    <row r="42" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>234</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="2">
-        <v>10</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" location="'JS Error Types'!A1" display="Explain Type Error, Syntax Error and Referrence Error" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C5" location="'JS Error Types'!A1" display="Explain Type Error, Syntax Error and Referrence Error"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5648,7 +5755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5789,10 +5896,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -5800,10 +5907,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -5811,10 +5918,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -5822,10 +5929,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -5833,10 +5940,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5844,10 +5951,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5855,10 +5962,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5866,10 +5973,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="158.4" x14ac:dyDescent="0.3">
@@ -5877,10 +5984,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="158.4" x14ac:dyDescent="0.3">
@@ -5888,10 +5995,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -5899,10 +6006,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5910,10 +6017,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -5921,10 +6028,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -5932,10 +6039,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -5943,10 +6050,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5954,7 +6061,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5963,7 +6070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5985,10 +6092,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="15" t="s">
         <v>69</v>
       </c>
@@ -6000,10 +6107,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="69"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
@@ -6015,16 +6122,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="69" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -6032,16 +6139,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="70"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="70"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="14" t="s">
         <v>81</v>
       </c>
@@ -6056,7 +6163,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="70"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="14" t="s">
         <v>85</v>
       </c>
@@ -6071,7 +6178,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="70"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
@@ -6082,7 +6189,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="70"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="14" t="s">
         <v>91</v>
       </c>
@@ -6093,7 +6200,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="70"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="14" t="s">
         <v>93</v>
       </c>
@@ -6106,10 +6213,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
@@ -6131,14 +6238,14 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6152,10 +6259,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="75"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
@@ -6434,39 +6541,39 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
-    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
-    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
-    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
-    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
-    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
-    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
@@ -6474,7 +6581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0">
@@ -6508,9 +6615,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -6519,7 +6626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView topLeftCell="C20" workbookViewId="0">
@@ -6539,10 +6646,10 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="68" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6550,8 +6657,8 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
     </row>
     <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -6602,7 +6709,7 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="65" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -6613,7 +6720,7 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
@@ -6774,7 +6881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6791,16 +6898,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" s="45" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="81" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
+      <c r="B3" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
@@ -6812,11 +6919,11 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
+      <c r="B4" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="47"/>
@@ -6907,21 +7014,21 @@
       <c r="D26" s="48"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
     </row>
     <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="87" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89"/>
+      <c r="B29" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="47"/>
@@ -7004,21 +7111,21 @@
       <c r="D49" s="48"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="75"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="81"/>
     </row>
     <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="78"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="80"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="84"/>
     </row>
     <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="74"/>
+      <c r="B52" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="78"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="47"/>
@@ -7101,26 +7208,26 @@
       <c r="D72" s="48"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="75"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="77"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="81"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="75"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="81"/>
     </row>
     <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="78"/>
-      <c r="C75" s="79"/>
-      <c r="D75" s="80"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="84"/>
     </row>
     <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="C76" s="73"/>
-      <c r="D76" s="74"/>
+      <c r="B76" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="77"/>
+      <c r="D76" s="78"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="47"/>
@@ -7175,8 +7282,8 @@
     <mergeCell ref="B52:D52"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'JS Points'!A1" display="Back To Home" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="A1" location="'JS Points'!A1" display="Back To Home"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{620FDA9E-9514-4993-93F7-EA0C90C6860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JS Points" sheetId="3" r:id="rId1"/>
-    <sheet name="Interview questions for others" sheetId="10" r:id="rId2"/>
-    <sheet name="React-JS" sheetId="9" r:id="rId3"/>
-    <sheet name=" Array &amp; Object" sheetId="6" r:id="rId4"/>
-    <sheet name="Array-Methods" sheetId="8" r:id="rId5"/>
-    <sheet name="Operators" sheetId="7" r:id="rId6"/>
-    <sheet name="JS ES6 Interview " sheetId="5" r:id="rId7"/>
-    <sheet name="JS Error Types" sheetId="11" r:id="rId8"/>
+    <sheet name="Interview questions for others" sheetId="10" r:id="rId1"/>
+    <sheet name="React-LifeCycle method" sheetId="12" r:id="rId2"/>
+    <sheet name="JS Points" sheetId="3" r:id="rId3"/>
+    <sheet name="JS ES6 Interview " sheetId="5" r:id="rId4"/>
+    <sheet name="React-JS" sheetId="9" r:id="rId5"/>
+    <sheet name=" Array &amp; Object" sheetId="6" r:id="rId6"/>
+    <sheet name="Array-Methods" sheetId="8" r:id="rId7"/>
+    <sheet name="Operators" sheetId="7" r:id="rId8"/>
+    <sheet name="JS Error Types" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="305">
   <si>
     <t>Topics</t>
   </si>
@@ -293,9 +296,6 @@
   </si>
   <si>
     <t xml:space="preserve">In normal function this returns big-size context of object. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In factor of function this return empty object. </t>
   </si>
   <si>
     <t>Import and Export ES 6</t>
@@ -1813,18 +1813,12 @@
     <t>Pure component ?</t>
   </si>
   <si>
-    <t>HigherOrder Components</t>
-  </si>
-  <si>
     <t>Life cycle methods with full Explanation-Class level</t>
   </si>
   <si>
     <t>Life cycle methods with full Explanation-Function level Hooks</t>
   </si>
   <si>
-    <t>React Questions</t>
-  </si>
-  <si>
     <t>Shallow and deep copy</t>
   </si>
   <si>
@@ -1843,12 +1837,6 @@
     <t>What is SASS and LESS</t>
   </si>
   <si>
-    <t>CSS Questions</t>
-  </si>
-  <si>
-    <t>Java Script Questions</t>
-  </si>
-  <si>
     <t>Props Drilling</t>
   </si>
   <si>
@@ -1858,12 +1846,6 @@
     <t>Function Closure and call back</t>
   </si>
   <si>
-    <t>Flexbox</t>
-  </si>
-  <si>
-    <t>Random Questions</t>
-  </si>
-  <si>
     <t>What is Front End?</t>
   </si>
   <si>
@@ -1877,9 +1859,6 @@
   </si>
   <si>
     <t>Diff between Service &amp; Product based</t>
-  </si>
-  <si>
-    <t>HTML Questions</t>
   </si>
   <si>
     <t>Diff between Semantic &amp; Non-Semantic elements</t>
@@ -2317,12 +2296,204 @@
       <t xml:space="preserve"> of an object create a fully independent copy of an object. In case of deep copy everything will be copied to the new object.No changes occur in new object's value even after changing old objec'st value.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">In fat arrow of function this return empty object. </t>
+  </si>
+  <si>
+    <t>Diff between state and props</t>
+  </si>
+  <si>
+    <t>What is pseudo classes and elements.</t>
+  </si>
+  <si>
+    <t>What is event Bubbling?</t>
+  </si>
+  <si>
+    <t>function currying?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Back end</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Questions</t>
+    </r>
+  </si>
+  <si>
+    <t>What is cors module in nodejs?</t>
+  </si>
+  <si>
+    <t>flex and Flexbox</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Random </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Questions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>React</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Questions</t>
+    </r>
+  </si>
+  <si>
+    <t>What is react-dom? Either react or react-dom which is used for modify data?</t>
+  </si>
+  <si>
+    <t>Difference between shadow-DOM and V-DOM ?</t>
+  </si>
+  <si>
+    <t>Diff between null and undefined data type ?</t>
+  </si>
+  <si>
+    <t>HigherOrder Components ?</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Lifecycle methods</t>
+  </si>
+  <si>
+    <t>Diff between lazy import and dynamic import?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Questions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Questions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Java Script </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Questions</t>
+    </r>
+  </si>
+  <si>
+    <t>Class component Life cycle methods</t>
+  </si>
+  <si>
+    <t>Functional Component Life Cycle methods</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2546,8 +2717,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2587,6 +2798,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2922,7 +3139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3070,18 +3287,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3103,9 +3332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3180,9 +3406,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3222,7 +3445,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4E2A9D0-6317-F80A-734A-BA487709DB1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E2A9D0-6317-F80A-734A-BA487709DB1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3291,7 +3514,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{460CD100-4C60-9655-E767-3F618142FBDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460CD100-4C60-9655-E767-3F618142FBDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,499 +3621,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495954</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>175841</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="601980"/>
-          <a:ext cx="7544454" cy="6706181"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>114770</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="7399020"/>
-          <a:ext cx="7551420" cy="5418290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>129821</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="12885420"/>
-          <a:ext cx="7551420" cy="3238781"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>160604</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="16177260"/>
-          <a:ext cx="7536179" cy="6744284"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>464819</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>76761</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect r="15954"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="22943820"/>
-          <a:ext cx="7513319" cy="6477561"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>168098</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="29527500"/>
-          <a:ext cx="7505700" cy="5288738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>8175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="34831020"/>
-          <a:ext cx="7513320" cy="6408975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>464821</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>30847</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="41231820"/>
-          <a:ext cx="7513320" cy="4237087"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>84303</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="45438060"/>
-          <a:ext cx="7505700" cy="5570703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>53630</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="51107340"/>
-          <a:ext cx="7482840" cy="3345470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>426721</xdr:colOff>
-      <xdr:row>318</xdr:row>
-      <xdr:rowOff>99401</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="54399180"/>
-          <a:ext cx="7475220" cy="3939881"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3909,7 +3639,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271A39DF-730C-44C5-B2C6-BCC2EFAE8626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3987,7 +3717,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A86CCB-9035-382C-CB17-968C40DFAB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4037,7 +3767,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123DE96-BC07-92D0-1AEA-823B40633BA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4090,7 +3820,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B9A0D3-4108-418B-8375-3FDACBDFFF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4143,7 +3873,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073A0F4-BF25-49FD-B619-5EC5F802F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4196,7 +3926,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696E1177-F678-B27D-E168-36FA4288F520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4246,7 +3976,7 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6952BA-250D-47A8-9B95-78E49C76026E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4296,7 +4026,7 @@
         <xdr:cNvPr id="17" name="Connector: Elbow 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC763-551C-C4BE-9443-748B6D540788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4354,7 +4084,7 @@
         <xdr:cNvPr id="20" name="Connector: Elbow 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A7CBE-D3B6-4E61-B697-B078049DE0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4397,6 +4127,499 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495954</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0687AC-5F95-B371-FCC3-516ECEBB7F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="601980"/>
+          <a:ext cx="7544454" cy="6706181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38596EE9-12E8-E05D-656B-7E6C83468E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7399020"/>
+          <a:ext cx="7551420" cy="5418290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>129821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44838A8-315A-6F11-F425-7C24684925CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12885420"/>
+          <a:ext cx="7551420" cy="3238781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>160604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6468BF38-FF2D-C7D2-9142-120CFAF41A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="16177260"/>
+          <a:ext cx="7536179" cy="6744284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464819</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>76761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCAADE1-0A65-E2AB-42C9-C833CC10A99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect r="15954"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22943820"/>
+          <a:ext cx="7513319" cy="6477561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>168098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A655E8-006A-EE32-F2F1-5080EB63AAF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29527500"/>
+          <a:ext cx="7505700" cy="5288738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>8175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5A8967-9D46-7B4A-81EA-E5E7E0FBD1D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="34831020"/>
+          <a:ext cx="7513320" cy="6408975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464821</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>30847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5628D44-680D-FB5E-E6FA-ECBA9934C1EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="41231820"/>
+          <a:ext cx="7513320" cy="4237087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>84303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7253AB4-994D-87AA-50A4-1E642115AF54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="45438060"/>
+          <a:ext cx="7505700" cy="5570703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>53630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCCF8C-2871-9944-4A9D-EC8901C1674D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="51107340"/>
+          <a:ext cx="7482840" cy="3345470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426721</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>99401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1A4CDE-62F4-A369-6F02-86865D0E6B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="54399180"/>
+          <a:ext cx="7475220" cy="3939881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4417,7 +4640,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4467,7 +4690,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4517,7 +4740,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4567,7 +4790,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4644,7 +4867,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4677,9 +4900,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4712,6 +4952,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4887,10 +5144,748 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="53.5546875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="H3" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="H12" s="2">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="57"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="57"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="57"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="57"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="57"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="57"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="57"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="19"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="J25" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="H26" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="H32" s="2">
+        <v>6</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="H33" s="2">
+        <v>7</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="H34" s="2">
+        <v>8</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="H35" s="2">
+        <v>9</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="2:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H36" s="2">
+        <v>10</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="57"/>
+    </row>
+    <row r="42" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" s="57"/>
+    </row>
+    <row r="43" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>17</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" s="57"/>
+    </row>
+    <row r="44" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>18</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D44" s="57"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>19</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="57"/>
+    </row>
+    <row r="54" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="D54" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="J54" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="H55" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+    </row>
+    <row r="56" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <v>7</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
+        <v>8</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>10</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" location="'JS Error Types'!A1" display="Explain Type Error, Syntax Error and Referrence Error" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F00D1E-AF2C-412B-8A1F-AA2D31666F3D}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4907,10 +5902,10 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="67" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4918,8 +5913,8 @@
       <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="68"/>
     </row>
     <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52">
@@ -4991,18 +5986,18 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
@@ -5026,7 +6021,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5044,7 +6039,7 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -5055,7 +6050,7 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5076,10 +6071,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -5087,10 +6082,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5098,7 +6093,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -5107,10 +6102,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -5118,10 +6113,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -5129,10 +6124,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -5140,10 +6135,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5154,608 +6149,273 @@
     <mergeCell ref="C15:C16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? "/>
-    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. "/>
-    <hyperlink ref="C23" location="Operators!A1" display="JS Operators"/>
-    <hyperlink ref="C24" location="'JS Error Types'!A1" display="Explain SyntaxError, ReferenceError and TypeError with examples"/>
+    <hyperlink ref="C19" location="' Array &amp; Object'!A1" display="What is Array ? " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C21" location="' Array &amp; Object'!A1" display="JavaScript object. " xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C23" location="Operators!A1" display="JS Operators" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C24" location="'JS Error Types'!A1" display="Explain SyntaxError, ReferenceError and TypeError with examples" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="53.5546875" style="40" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="96.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="H3" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+    </row>
+    <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="H9" s="2">
-        <v>6</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="70"/>
+      <c r="D9" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="H10" s="2">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="58.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>277</v>
+      <c r="C11" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H11" s="2">
-        <v>8</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="58.8" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>279</v>
+      <c r="C12" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H12" s="2">
-        <v>9</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="57"/>
-    </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="57"/>
-    </row>
-    <row r="15" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="57"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="60"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="57"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="60"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="57"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="60"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="57"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="60"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="57"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="60"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="57"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="57"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="H26" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="H28" s="2">
-        <v>2</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="H29" s="2">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="H30" s="2">
-        <v>4</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="H31" s="2">
-        <v>5</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="H32" s="2">
-        <v>6</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="H33" s="2">
-        <v>7</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="H34" s="2">
-        <v>8</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
-        <v>9</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="H35" s="2">
-        <v>9</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
-        <v>10</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="H36" s="2">
-        <v>10</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="39" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-    </row>
-    <row r="41" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
-        <v>2</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
-        <v>3</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
-        <v>5</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
-        <v>6</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
-        <v>7</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
-        <v>8</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="2">
-        <v>9</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="2">
-        <v>10</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="J2:J3"/>
+  <mergeCells count="3">
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C5" location="'JS Error Types'!A1" display="Explain Type Error, Syntax Error and Referrence Error"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5772,13 +6432,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>181</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
@@ -5786,10 +6446,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="115.2" x14ac:dyDescent="0.3">
@@ -5797,10 +6457,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -5808,10 +6468,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -5819,10 +6479,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5830,10 +6490,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5841,10 +6501,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -5852,10 +6512,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5863,10 +6523,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -5874,10 +6534,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -5885,10 +6545,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>201</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5896,10 +6556,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -5907,10 +6567,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -5918,10 +6578,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -5929,10 +6589,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -5940,10 +6600,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5951,10 +6611,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5962,10 +6622,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -5973,10 +6633,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="158.4" x14ac:dyDescent="0.3">
@@ -5984,10 +6644,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="158.4" x14ac:dyDescent="0.3">
@@ -5995,10 +6655,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -6006,10 +6666,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -6017,10 +6677,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -6028,10 +6688,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -6039,10 +6699,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -6050,10 +6710,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -6061,7 +6721,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6069,8 +6729,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6088,143 +6748,143 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="76" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="73" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="16" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="74" t="s">
+      <c r="C5" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="D5" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="E5" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="77"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="1" t="s">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="77"/>
+      <c r="C7" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="74"/>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="77"/>
+      <c r="C8" s="14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="18" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B9" s="77"/>
+      <c r="C9" s="14" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="74"/>
-      <c r="C9" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10" s="77"/>
+      <c r="C10" s="14" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="74"/>
-      <c r="C10" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="77"/>
+      <c r="C11" s="14" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="74"/>
-      <c r="C11" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="16" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="74" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="71" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -6238,14 +6898,14 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main page" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6259,281 +6919,281 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="75"/>
+      <c r="B2" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="78"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>120</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>128</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>132</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>134</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>136</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>138</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>140</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>142</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>144</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>146</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>148</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>150</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>152</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>154</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>156</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>158</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>160</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>162</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>164</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>166</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>170</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>172</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>174</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="35" t="s">
         <v>176</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="37" t="s">
         <v>178</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6541,47 +7201,47 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp"/>
-    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp"/>
-    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp"/>
-    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp"/>
-    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp"/>
-    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp"/>
-    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp"/>
-    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp"/>
-    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp"/>
-    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp"/>
-    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp"/>
-    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/JSREF/jsref_concat_array.asp" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/JSREF/jsref_constructor_array.asp" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/JSREF/jsref_copywithin.asp" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/JSREF/jsref_entries.asp" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/JSREF/jsref_every.asp" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/JSREF/jsref_fill.asp" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/JSREF/jsref_filter.asp" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/JSREF/jsref_find.asp" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/JSREF/jsref_findindex.asp" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/JSREF/jsref_foreach.asp" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/JSREF/jsref_from.asp" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/JSREF/jsref_includes_array.asp" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/JSREF/jsref_indexof_array.asp" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/JSREF/jsref_isarray.asp" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/JSREF/jsref_join.asp" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/JSREF/jsref_keys.asp" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/JSREF/jsref_lastindexof_array.asp" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/JSREF/jsref_length_array.asp" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/JSREF/jsref_map.asp" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/JSREF/jsref_pop.asp" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/JSREF/jsref_prototype_array.asp" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/JSREF/jsref_push.asp" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/JSREF/jsref_reduce.asp" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/JSREF/jsref_reduceright.asp" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/JSREF/jsref_reverse.asp" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/JSREF/jsref_shift.asp" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/JSREF/jsref_slice_array.asp" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/JSREF/jsref_some.asp" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/JSREF/jsref_sort.asp" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/JSREF/jsref_splice.asp" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/JSREF/jsref_tostring_array.asp" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/JSREF/jsref_unshift.asp" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/JSREF/jsref_valueof_array.asp" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0">
@@ -6598,26 +7258,26 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="E3" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A1" location="'Js points'!A1" display="Back to main FILE" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -6625,263 +7285,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E22"/>
-  <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="96.109375" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-    </row>
-    <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="58.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="58.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C8:C9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6898,16 +7303,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" s="45" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
@@ -6919,11 +7324,11 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="B4" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="47"/>
@@ -7014,21 +7419,21 @@
       <c r="D26" s="48"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
     </row>
     <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="91" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
+      <c r="B29" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="95"/>
+      <c r="D29" s="96"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="47"/>
@@ -7111,21 +7516,21 @@
       <c r="D49" s="48"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="81"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="84"/>
     </row>
     <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="82"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="84"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
     </row>
     <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="78"/>
+      <c r="B52" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="80"/>
+      <c r="D52" s="81"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="47"/>
@@ -7208,26 +7613,26 @@
       <c r="D72" s="48"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="79"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="81"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="84"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="79"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="81"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="84"/>
     </row>
     <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="82"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="84"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="87"/>
     </row>
     <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="76" t="s">
-        <v>243</v>
-      </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="78"/>
+      <c r="B76" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="80"/>
+      <c r="D76" s="81"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="47"/>
@@ -7282,8 +7687,8 @@
     <mergeCell ref="B52:D52"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'JS Points'!A1" display="Back To Home"/>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="'JS Points'!A1" display="Back To Home" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{620FDA9E-9514-4993-93F7-EA0C90C6860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90992A5-8A62-4235-9ADF-AF53705AD39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interview questions for others" sheetId="10" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="JS Error Types" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="314">
   <si>
     <t>Topics</t>
   </si>
@@ -2487,6 +2486,148 @@
   </si>
   <si>
     <t>Functional Component Life Cycle methods</t>
+  </si>
+  <si>
+    <t>Description/ Examples</t>
+  </si>
+  <si>
+    <t>When an instance of a component is being created and inserted into the DOM</t>
+  </si>
+  <si>
+    <t>When a component is being re-rendered as a result of changes to either its props or state.</t>
+  </si>
+  <si>
+    <t>When a component is being removed from the DOM</t>
+  </si>
+  <si>
+    <t>When there is an error during rendering, in a lifecycle method,
+or in the constructor of any child component</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mounting  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, static getDerivedStateFromProps,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> render and componentDidMount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Updating [static getDerivedStateFromProps, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shouldComponentUpdate, render,
+getSnapshotBeforeUpdate and componentDidUpdate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unmounting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[componentWillUnmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Errorhandling [static getDerivedStateFromError and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>componentDidCatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3293,15 +3434,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3406,6 +3538,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5147,7 +5288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
@@ -5169,19 +5310,19 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="61" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="61" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5189,13 +5330,13 @@
       <c r="B3" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="H3" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -5419,19 +5560,19 @@
       <c r="B25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="61" t="s">
         <v>3</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="64" t="s">
+      <c r="I25" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="J25" s="64" t="s">
+      <c r="J25" s="61" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5439,13 +5580,13 @@
       <c r="B26" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="H26" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
@@ -5690,19 +5831,19 @@
       <c r="B54" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="59" t="s">
         <v>3</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I54" s="64" t="s">
+      <c r="I54" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="J54" s="64" t="s">
+      <c r="J54" s="61" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5710,13 +5851,13 @@
       <c r="B55" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
       <c r="H55" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
     </row>
     <row r="56" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
@@ -5848,36 +5989,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F00D1E-AF2C-412B-8A1F-AA2D31666F3D}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="39.77734375" customWidth="1"/>
     <col min="3" max="3" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="2:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="94" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="95" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+    </row>
+    <row r="3" spans="2:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="96" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="96" t="s">
         <v>304</v>
       </c>
+      <c r="E3" s="96" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5902,10 +6142,10 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5913,8 +6153,8 @@
       <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52">
@@ -5986,7 +6226,7 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="66" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -5997,7 +6237,7 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
@@ -6039,7 +6279,7 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -6050,7 +6290,7 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="71"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6180,10 +6420,10 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="61" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6191,8 +6431,8 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
     </row>
     <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -6243,7 +6483,7 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="66" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -6254,7 +6494,7 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="4" t="s">
         <v>283</v>
       </c>
@@ -6752,10 +6992,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
@@ -6767,10 +7007,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="2" t="s">
         <v>72</v>
       </c>
@@ -6782,16 +7022,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="69" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -6799,16 +7039,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="77"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="77"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="14" t="s">
         <v>80</v>
       </c>
@@ -6823,7 +7063,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="77"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="14" t="s">
         <v>84</v>
       </c>
@@ -6838,7 +7078,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="77"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="14" t="s">
         <v>88</v>
       </c>
@@ -6849,7 +7089,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="77"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="14" t="s">
         <v>90</v>
       </c>
@@ -6860,7 +7100,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="77"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="14" t="s">
         <v>92</v>
       </c>
@@ -6873,10 +7113,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="4" t="s">
         <v>96</v>
       </c>
@@ -6919,10 +7159,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="75"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
@@ -7308,11 +7548,11 @@
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" s="45" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
@@ -7324,11 +7564,11 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="47"/>
@@ -7419,21 +7659,21 @@
       <c r="D26" s="48"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
     </row>
     <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="47"/>
@@ -7516,21 +7756,21 @@
       <c r="D49" s="48"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="82"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="84"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="81"/>
     </row>
     <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="85"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="87"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="84"/>
     </row>
     <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="79" t="s">
+      <c r="B52" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="80"/>
-      <c r="D52" s="81"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="78"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="47"/>
@@ -7613,26 +7853,26 @@
       <c r="D72" s="48"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="82"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="84"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="81"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="82"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="84"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="81"/>
     </row>
     <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="85"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="87"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="84"/>
     </row>
     <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="80"/>
-      <c r="D76" s="81"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="78"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="47"/>

--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90992A5-8A62-4235-9ADF-AF53705AD39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4544CE3E-560E-44EF-95F6-C453E578EB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interview questions for others" sheetId="10" r:id="rId1"/>
     <sheet name="React-LifeCycle method" sheetId="12" r:id="rId2"/>
     <sheet name="JS Points" sheetId="3" r:id="rId3"/>
-    <sheet name="JS ES6 Interview " sheetId="5" r:id="rId4"/>
-    <sheet name="React-JS" sheetId="9" r:id="rId5"/>
-    <sheet name=" Array &amp; Object" sheetId="6" r:id="rId6"/>
-    <sheet name="Array-Methods" sheetId="8" r:id="rId7"/>
-    <sheet name="Operators" sheetId="7" r:id="rId8"/>
-    <sheet name="JS Error Types" sheetId="11" r:id="rId9"/>
+    <sheet name="NodeJS" sheetId="13" r:id="rId4"/>
+    <sheet name="JS ES6 Interview " sheetId="5" r:id="rId5"/>
+    <sheet name="React-JS" sheetId="9" r:id="rId6"/>
+    <sheet name=" Array &amp; Object" sheetId="6" r:id="rId7"/>
+    <sheet name="Array-Methods" sheetId="8" r:id="rId8"/>
+    <sheet name="Operators" sheetId="7" r:id="rId9"/>
+    <sheet name="JS Error Types" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="328">
   <si>
     <t>Topics</t>
   </si>
@@ -2628,6 +2629,48 @@
       </rPr>
       <t>]</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">QUESTION </t>
+  </si>
+  <si>
+    <t>ANSWER</t>
+  </si>
+  <si>
+    <t>What is node js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript server runtime environment. </t>
+  </si>
+  <si>
+    <t>Why node js</t>
+  </si>
+  <si>
+    <t>Node JS asynchronous programming. Node JS and non blocking request mechanism. It’s a multi threaded mechanism exicuting simultaneously. It works based on MVC -Model view controller bse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbuilt modules. </t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Node js + modeules</t>
+  </si>
+  <si>
+    <t>Nodejs</t>
+  </si>
+  <si>
+    <t>Google V8 engine+ modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is modules? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection of file which contains classes and methods. </t>
+  </si>
+  <si>
+    <t>OS module</t>
   </si>
 </sst>
 </file>
@@ -3434,6 +3477,15 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3538,15 +3590,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5289,7 +5332,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5310,19 +5353,19 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="64" t="s">
         <v>301</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="64" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5330,13 +5373,13 @@
       <c r="B3" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="H3" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -5560,19 +5603,19 @@
       <c r="B25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="64" t="s">
         <v>3</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="I25" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="J25" s="61" t="s">
+      <c r="J25" s="64" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5580,13 +5623,13 @@
       <c r="B26" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
       <c r="H26" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
@@ -5831,19 +5874,19 @@
       <c r="B54" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="62" t="s">
         <v>3</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I54" s="61" t="s">
+      <c r="I54" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="J54" s="61" t="s">
+      <c r="J54" s="64" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5851,13 +5894,13 @@
       <c r="B55" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
       <c r="H55" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
     </row>
     <row r="56" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
@@ -5987,12 +6030,422 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:M86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" s="45" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="47"/>
+      <c r="D5" s="48"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="47"/>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="47"/>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="47"/>
+      <c r="D8" s="48"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="47"/>
+      <c r="D9" s="48"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
+      <c r="D10" s="48"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
+      <c r="D11" s="48"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="47"/>
+      <c r="D12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
+      <c r="D13" s="48"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="47"/>
+      <c r="D14" s="48"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="47"/>
+      <c r="D15" s="48"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="47"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="47"/>
+      <c r="D17" s="48"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="47"/>
+      <c r="D18" s="48"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="47"/>
+      <c r="D19" s="48"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="47"/>
+      <c r="D20" s="48"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="47"/>
+      <c r="D21" s="48"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
+      <c r="D22" s="48"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
+      <c r="D23" s="48"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="47"/>
+      <c r="D24" s="48"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
+      <c r="D25" s="48"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
+      <c r="D26" s="48"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+    </row>
+    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+    </row>
+    <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="95"/>
+      <c r="D29" s="96"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="47"/>
+      <c r="D30" s="48"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="47"/>
+      <c r="D31" s="48"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="47"/>
+      <c r="D32" s="48"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="47"/>
+      <c r="D33" s="48"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="47"/>
+      <c r="D34" s="48"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="47"/>
+      <c r="D35" s="48"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="47"/>
+      <c r="D36" s="48"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="47"/>
+      <c r="D37" s="48"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="47"/>
+      <c r="D38" s="48"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="47"/>
+      <c r="D39" s="48"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="47"/>
+      <c r="D40" s="48"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="47"/>
+      <c r="D41" s="48"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="47"/>
+      <c r="D42" s="48"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="47"/>
+      <c r="D43" s="48"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="47"/>
+      <c r="D44" s="48"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="47"/>
+      <c r="D45" s="48"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="47"/>
+      <c r="D46" s="48"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="47"/>
+      <c r="D47" s="48"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="47"/>
+      <c r="D48" s="48"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="47"/>
+      <c r="D49" s="48"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="82"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="84"/>
+    </row>
+    <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
+    </row>
+    <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="80"/>
+      <c r="D52" s="81"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="47"/>
+      <c r="D53" s="48"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="47"/>
+      <c r="D54" s="48"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="47"/>
+      <c r="D55" s="48"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="47"/>
+      <c r="D56" s="48"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="47"/>
+      <c r="D57" s="48"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="47"/>
+      <c r="D58" s="48"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="47"/>
+      <c r="D59" s="48"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="47"/>
+      <c r="D60" s="48"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="47"/>
+      <c r="D61" s="48"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="47"/>
+      <c r="D62" s="48"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="47"/>
+      <c r="D63" s="48"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="47"/>
+      <c r="D64" s="48"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="47"/>
+      <c r="D65" s="48"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="47"/>
+      <c r="D66" s="48"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="47"/>
+      <c r="D67" s="48"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="47"/>
+      <c r="D68" s="48"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="47"/>
+      <c r="D69" s="48"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="47"/>
+      <c r="D70" s="48"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="47"/>
+      <c r="D71" s="48"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="47"/>
+      <c r="D72" s="48"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="82"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="84"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="82"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="84"/>
+    </row>
+    <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="85"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="87"/>
+    </row>
+    <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="80"/>
+      <c r="D76" s="81"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="47"/>
+      <c r="D77" s="48"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="47"/>
+      <c r="D78" s="48"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="47"/>
+      <c r="D79" s="48"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="47"/>
+      <c r="D80" s="48"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="47"/>
+      <c r="D81" s="48"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="47"/>
+      <c r="D82" s="48"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="47"/>
+      <c r="D83" s="48"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="47"/>
+      <c r="D84" s="48"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="47"/>
+      <c r="D85" s="48"/>
+    </row>
+    <row r="86" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="49"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="B73:D75"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B52:D52"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'JS Points'!A1" display="Back To Home" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F00D1E-AF2C-412B-8A1F-AA2D31666F3D}">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6004,26 +6457,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="61" t="s">
         <v>305</v>
       </c>
     </row>
@@ -6125,8 +6578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6142,10 +6595,10 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6153,8 +6606,8 @@
       <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="68"/>
     </row>
     <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52">
@@ -6226,7 +6679,7 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -6237,7 +6690,7 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
@@ -6279,7 +6732,7 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="71" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -6290,7 +6743,7 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6400,6 +6853,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A17234-C184-4A5E-A1FE-D89A263D2EAE}">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:E22"/>
   <sheetViews>
@@ -6420,10 +6960,10 @@
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6431,8 +6971,8 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="2:5" ht="294.60000000000002" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -6483,7 +7023,7 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="69" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -6494,7 +7034,7 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="4" t="s">
         <v>283</v>
       </c>
@@ -6654,7 +7194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D28"/>
   <sheetViews>
@@ -6969,13 +7509,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6992,10 +7530,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
@@ -7007,10 +7545,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="2" t="s">
         <v>72</v>
       </c>
@@ -7022,16 +7560,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="72" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -7039,16 +7577,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="74"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="14" t="s">
         <v>80</v>
       </c>
@@ -7063,7 +7601,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="14" t="s">
         <v>84</v>
       </c>
@@ -7078,7 +7616,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="74"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="14" t="s">
         <v>88</v>
       </c>
@@ -7089,7 +7627,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="74"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="14" t="s">
         <v>90</v>
       </c>
@@ -7100,7 +7638,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="74"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="14" t="s">
         <v>92</v>
       </c>
@@ -7113,10 +7651,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="4" t="s">
         <v>96</v>
       </c>
@@ -7144,12 +7682,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7159,10 +7697,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="75"/>
+      <c r="C2" s="78"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
@@ -7480,13 +8018,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7523,414 +8059,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M86"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" s="45" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" spans="1:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="88" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="47"/>
-      <c r="D5" s="48"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="47"/>
-      <c r="D6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
-      <c r="D7" s="48"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
-      <c r="D8" s="48"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="D9" s="48"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
-      <c r="D10" s="48"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
-      <c r="D11" s="48"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="47"/>
-      <c r="D12" s="48"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="47"/>
-      <c r="D13" s="48"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="47"/>
-      <c r="D14" s="48"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="D15" s="48"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="47"/>
-      <c r="D16" s="48"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="47"/>
-      <c r="D17" s="48"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
-      <c r="D18" s="48"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="D19" s="48"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="D20" s="48"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="D21" s="48"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="D22" s="48"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="D23" s="48"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="D24" s="48"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="D25" s="48"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="D26" s="48"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-    </row>
-    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-    </row>
-    <row r="29" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="47"/>
-      <c r="D30" s="48"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="47"/>
-      <c r="D31" s="48"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
-      <c r="D32" s="48"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
-      <c r="D33" s="48"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
-      <c r="D34" s="48"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="47"/>
-      <c r="D35" s="48"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="47"/>
-      <c r="D36" s="48"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="47"/>
-      <c r="D37" s="48"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="47"/>
-      <c r="D38" s="48"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="47"/>
-      <c r="D39" s="48"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="47"/>
-      <c r="D40" s="48"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="47"/>
-      <c r="D41" s="48"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="47"/>
-      <c r="D42" s="48"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="47"/>
-      <c r="D43" s="48"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="47"/>
-      <c r="D44" s="48"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="47"/>
-      <c r="D45" s="48"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="47"/>
-      <c r="D46" s="48"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="47"/>
-      <c r="D47" s="48"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="47"/>
-      <c r="D48" s="48"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="47"/>
-      <c r="D49" s="48"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="81"/>
-    </row>
-    <row r="51" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="82"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="84"/>
-    </row>
-    <row r="52" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="78"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="47"/>
-      <c r="D53" s="48"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="47"/>
-      <c r="D54" s="48"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="47"/>
-      <c r="D55" s="48"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="47"/>
-      <c r="D56" s="48"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="47"/>
-      <c r="D57" s="48"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="47"/>
-      <c r="D58" s="48"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="47"/>
-      <c r="D59" s="48"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="47"/>
-      <c r="D60" s="48"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="47"/>
-      <c r="D61" s="48"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="47"/>
-      <c r="D62" s="48"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="47"/>
-      <c r="D63" s="48"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="47"/>
-      <c r="D64" s="48"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="47"/>
-      <c r="D65" s="48"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="47"/>
-      <c r="D66" s="48"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="47"/>
-      <c r="D67" s="48"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="47"/>
-      <c r="D68" s="48"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="47"/>
-      <c r="D69" s="48"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="47"/>
-      <c r="D70" s="48"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="47"/>
-      <c r="D71" s="48"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="47"/>
-      <c r="D72" s="48"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="79"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="81"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="79"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="81"/>
-    </row>
-    <row r="75" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="82"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="84"/>
-    </row>
-    <row r="76" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="78"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="47"/>
-      <c r="D77" s="48"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="47"/>
-      <c r="D78" s="48"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="47"/>
-      <c r="D79" s="48"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="47"/>
-      <c r="D80" s="48"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="47"/>
-      <c r="D81" s="48"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="47"/>
-      <c r="D82" s="48"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="47"/>
-      <c r="D83" s="48"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="47"/>
-      <c r="D84" s="48"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="47"/>
-      <c r="D85" s="48"/>
-    </row>
-    <row r="86" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="49"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="B50:D51"/>
-    <mergeCell ref="B73:D75"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B52:D52"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'JS Points'!A1" display="Back To Home" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Interview preparation.xlsx
+++ b/Interview preparation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4544CE3E-560E-44EF-95F6-C453E578EB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C84A6F-A1C1-47C9-9B1C-7ED8596F32AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interview questions for others" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="331">
   <si>
     <t>Topics</t>
   </si>
@@ -2671,6 +2671,15 @@
   </si>
   <si>
     <t>OS module</t>
+  </si>
+  <si>
+    <t>What Big O ?</t>
+  </si>
+  <si>
+    <t>What is algorithms ?</t>
+  </si>
+  <si>
+    <t>Set of instructions to solve a problem.</t>
   </si>
 </sst>
 </file>
@@ -3798,6 +3807,54 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99415</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3083441</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2718440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1695D5-A690-3361-798F-0F911185DD2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="3569" t="1899" r="2126" b="3813"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3519555" y="18532017"/>
+          <a:ext cx="2984026" cy="2678214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5331,8 +5388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5536,16 +5593,26 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="57"/>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>330</v>
+      </c>
       <c r="H14" s="19"/>
       <c r="I14" s="5"/>
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>328</v>
+      </c>
       <c r="D15" s="57"/>
       <c r="H15" s="19"/>
       <c r="I15" s="5"/>
@@ -5560,8 +5627,8 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="57"/>
       <c r="H17" s="19"/>
       <c r="I17" s="5"/>
@@ -5827,7 +5894,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>15</v>
       </c>
@@ -6856,8 +6923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A17234-C184-4A5E-A1FE-D89A263D2EAE}">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6882,7 +6949,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>318</v>
       </c>
